--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mijn_drive\our_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5670F885-AAC4-47D7-971F-E536501016D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39FED510-1832-403A-9BB0-EFF8F417B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_input" sheetId="1" r:id="rId1"/>
@@ -196,13 +196,7 @@
     <t>sale_use</t>
   </si>
   <si>
-    <t>N_Yield</t>
-  </si>
-  <si>
     <t>g_N/Kg</t>
-  </si>
-  <si>
-    <t>P_requirement</t>
   </si>
   <si>
     <t>g_P/Kg</t>
@@ -269,6 +263,12 @@
   </si>
   <si>
     <t>perennial_grass_uncut</t>
+  </si>
+  <si>
+    <t>N_fixation</t>
+  </si>
+  <si>
+    <t>P_fixation</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="11">
         <v>2.1802325579999999E-4</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
         <v>8.8174948289999999E-2</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3">
         <v>0.18892474370000001</v>
@@ -1677,10 +1677,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>1.4124765049999999E-3</v>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3">
         <v>344</v>
@@ -1845,10 +1845,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3">
         <v>0.39277325600000002</v>
@@ -1929,10 +1929,10 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9">
         <v>19.2</v>
@@ -2013,10 +2013,10 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -2097,10 +2097,10 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="10">
         <v>0</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -2265,10 +2265,10 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="9">
         <v>1776.7441859999999</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" s="9">
         <v>27.39534884</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10">
         <v>62.79069767</v>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39FED510-1832-403A-9BB0-EFF8F417B879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F6CCD4-79AD-4C9A-984B-CA5AC8B103F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,12 +311,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,6 +359,8 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +582,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1088,10 +1096,10 @@
       <c r="AB6" s="7"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="4">
@@ -1172,10 +1180,10 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4">
@@ -1424,10 +1432,10 @@
       <c r="AB10" s="11"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="3">
@@ -1508,10 +1516,10 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="3">
@@ -1592,10 +1600,10 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="3">
@@ -1676,10 +1684,10 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="3">
@@ -1844,10 +1852,10 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="3">
@@ -2264,10 +2272,10 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="9">
@@ -2348,10 +2356,10 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="9">
@@ -2432,10 +2440,10 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="10">

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F6CCD4-79AD-4C9A-984B-CA5AC8B103F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005366FE-EF1E-4CD8-8B22-0E93DF38CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,16 +202,7 @@
     <t>g_P/Kg</t>
   </si>
   <si>
-    <t>Cultivation_costs</t>
-  </si>
-  <si>
     <t>€/Kg</t>
-  </si>
-  <si>
-    <t>Contract_work_costs</t>
-  </si>
-  <si>
-    <t>Subsidies</t>
   </si>
   <si>
     <t>general_labour_needed</t>
@@ -224,9 +215,6 @@
   </si>
   <si>
     <t>kg/ha</t>
-  </si>
-  <si>
-    <t>Sale_value</t>
   </si>
   <si>
     <t>€/kg</t>
@@ -270,6 +258,18 @@
   <si>
     <t>P_fixation</t>
   </si>
+  <si>
+    <t>cultivation_costs</t>
+  </si>
+  <si>
+    <t>contract_work_costs</t>
+  </si>
+  <si>
+    <t>subsidies</t>
+  </si>
+  <si>
+    <t>sale_value</t>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +311,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -361,6 +367,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,7 +589,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -647,7 +654,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
@@ -1265,7 +1272,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>35</v>
@@ -1349,7 +1356,7 @@
     </row>
     <row r="10" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>36</v>
@@ -1433,10 +1440,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="3">
         <v>8.8174948289999999E-2</v>
@@ -1517,10 +1524,10 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -1601,10 +1608,10 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3">
         <v>0.18892474370000001</v>
@@ -1685,10 +1692,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3">
         <v>1.4124765049999999E-3</v>
@@ -1769,10 +1776,10 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3">
         <v>344</v>
@@ -1852,11 +1859,11 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>46</v>
+      <c r="A16" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="3">
         <v>0.39277325600000002</v>
@@ -1937,7 +1944,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>35</v>
@@ -2021,7 +2028,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>36</v>
@@ -2105,10 +2112,10 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10">
         <v>0</v>
@@ -2189,10 +2196,10 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C20" s="5">
         <v>0</v>
@@ -2272,11 +2279,11 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>54</v>
+      <c r="A21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="9">
         <v>1776.7441859999999</v>
@@ -2356,11 +2363,11 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>52</v>
+      <c r="A22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="9">
         <v>27.39534884</v>
@@ -2440,11 +2447,11 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>52</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="10">
         <v>62.79069767</v>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005366FE-EF1E-4CD8-8B22-0E93DF38CAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CE9416-18FE-4245-8727-CA2987B94B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,7 +589,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,10 @@
       <c r="AA2" s="3">
         <v>0</v>
       </c>
-      <c r="AB2" s="3"/>
+      <c r="AB2" s="3">
+        <f>SUM(C2:AA2)</f>
+        <v>99.999000000000009</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -848,7 +851,10 @@
       <c r="AA3" s="3">
         <v>0</v>
       </c>
-      <c r="AB3" s="3"/>
+      <c r="AB3" s="3">
+        <f>SUM(C3:AA3)</f>
+        <v>95.678777746000009</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09015095-6445-42F7-AD45-39F01C2A6950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F8A0E-6DAC-434D-AE2F-884BF5DED2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="4785" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_input" sheetId="1" r:id="rId1"/>
@@ -589,20 +589,20 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="A13:B13"/>
+      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="27" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+    <col min="3" max="27" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>58</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1770,25 +1770,25 @@
         <v>41</v>
       </c>
       <c r="C15" s="3">
-        <v>344</v>
+        <v>3123.0169507616724</v>
       </c>
       <c r="D15" s="3">
-        <v>1376</v>
+        <v>12492.067806977921</v>
       </c>
       <c r="E15" s="3">
-        <v>1204</v>
+        <v>10930.559331105682</v>
       </c>
       <c r="F15" s="3">
-        <v>1720</v>
+        <v>1002.6260425465119</v>
       </c>
       <c r="G15" s="3">
-        <v>1472</v>
+        <v>858.06135745348809</v>
       </c>
       <c r="H15" s="3">
-        <v>2150</v>
+        <v>1236.9099008478349</v>
       </c>
       <c r="I15" s="3">
-        <v>2258</v>
+        <v>1299.0430491521652</v>
       </c>
       <c r="J15" s="3">
         <v>1104</v>
@@ -1797,40 +1797,44 @@
         <v>1435</v>
       </c>
       <c r="L15" s="3">
-        <v>188</v>
+        <v>2429.2506504839375</v>
       </c>
       <c r="M15" s="3">
-        <v>122</v>
+        <v>463.99735168684407</v>
       </c>
       <c r="N15" s="3">
-        <v>860</v>
+        <v>3772.0550212683343</v>
       </c>
       <c r="O15" s="3">
-        <v>1405</v>
+        <v>6162.4852400069612</v>
       </c>
       <c r="P15" s="3">
-        <v>1684</v>
+        <f>(P2/100)*(478771.7688+46926)</f>
+        <v>91332.797150337021</v>
       </c>
       <c r="Q15" s="3">
-        <v>2680.666667</v>
+        <f t="shared" ref="Q15:S15" si="0">(Q2/100)*(478771.7688+46926)</f>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>6300</v>
+        <f t="shared" si="0"/>
+        <v>341684.45501022291</v>
       </c>
       <c r="S15" s="3">
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>92675.259661751988</v>
       </c>
       <c r="T15" s="3">
-        <v>771.42857100000003</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>3534</v>
       </c>
       <c r="V15" s="3">
-        <v>1557</v>
+        <v>7319.2574134964962</v>
       </c>
       <c r="W15" s="3">
-        <v>1090</v>
+        <v>5123.9502757836681</v>
       </c>
       <c r="X15" s="3">
         <v>1958.65</v>
@@ -1845,7 +1849,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>59</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>78.239999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -2094,7 +2098,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -2177,7 +2181,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>51</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>52</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2527,7 +2531,6 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -2538,7 +2541,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2556,7 +2559,6 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -2567,7 +2569,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2585,7 +2587,6 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -2596,7 +2597,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2611,8 +2612,6 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2625,7 +2624,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2640,8 +2639,6 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2654,7 +2651,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2669,8 +2666,6 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2683,7 +2678,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2698,8 +2693,6 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2712,7 +2705,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2741,7 +2734,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2770,7 +2763,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2799,7 +2792,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2828,7 +2821,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2857,7 +2850,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2886,7 +2879,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2915,7 +2908,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2944,7 +2937,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2973,7 +2966,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3002,7 +2995,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3031,7 +3024,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3060,7 +3053,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3089,7 +3082,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3118,7 +3111,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3147,7 +3140,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3176,7 +3169,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3205,7 +3198,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3234,7 +3227,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3263,7 +3256,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3292,7 +3285,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3321,7 +3314,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3350,7 +3343,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3379,7 +3372,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3408,7 +3401,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3437,7 +3430,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3466,7 +3459,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3495,7 +3488,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3524,7 +3517,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3553,7 +3546,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3582,7 +3575,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3611,7 +3604,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3640,7 +3633,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3669,7 +3662,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3698,7 +3691,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3727,7 +3720,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3756,7 +3749,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3785,7 +3778,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3814,7 +3807,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3843,7 +3836,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3872,7 +3865,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3901,7 +3894,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3930,7 +3923,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3959,7 +3952,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3988,7 +3981,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4017,7 +4010,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4046,7 +4039,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4075,7 +4068,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4104,7 +4097,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4133,7 +4126,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4162,7 +4155,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4191,7 +4184,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4220,7 +4213,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4249,7 +4242,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4278,7 +4271,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4307,7 +4300,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4336,7 +4329,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4365,7 +4358,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4394,7 +4387,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4423,7 +4416,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4452,7 +4445,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4481,7 +4474,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4510,7 +4503,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4539,7 +4532,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4568,7 +4561,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4597,7 +4590,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4626,7 +4619,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4655,7 +4648,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4684,7 +4677,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4713,7 +4706,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4742,7 +4735,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4771,7 +4764,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4800,7 +4793,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4829,7 +4822,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4858,7 +4851,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4887,7 +4880,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4916,7 +4909,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4945,7 +4938,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4974,7 +4967,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5003,7 +4996,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5032,7 +5025,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5061,7 +5054,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5090,7 +5083,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5119,7 +5112,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5148,7 +5141,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5177,7 +5170,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5206,7 +5199,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5235,7 +5228,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5264,7 +5257,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5293,7 +5286,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5322,7 +5315,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5351,7 +5344,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5380,7 +5373,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5409,7 +5402,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5438,7 +5431,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5467,7 +5460,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5496,7 +5489,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5525,7 +5518,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5554,7 +5547,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5583,7 +5576,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5612,7 +5605,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5641,7 +5634,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5670,7 +5663,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5699,7 +5692,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5728,7 +5721,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5757,7 +5750,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5786,7 +5779,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5815,7 +5808,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5844,7 +5837,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5873,7 +5866,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5902,7 +5895,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5931,7 +5924,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5960,7 +5953,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5989,7 +5982,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6018,7 +6011,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6047,7 +6040,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6076,7 +6069,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6105,7 +6098,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6134,7 +6127,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6163,7 +6156,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6192,7 +6185,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6221,7 +6214,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6250,7 +6243,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6279,7 +6272,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6308,7 +6301,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6337,7 +6330,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6366,7 +6359,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6395,7 +6388,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6424,7 +6417,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6453,7 +6446,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6482,7 +6475,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6511,7 +6504,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6540,7 +6533,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6569,7 +6562,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6598,7 +6591,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6627,7 +6620,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6656,7 +6649,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6685,7 +6678,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6714,7 +6707,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6743,7 +6736,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6772,7 +6765,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6801,7 +6794,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6830,7 +6823,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6859,7 +6852,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6888,7 +6881,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6917,7 +6910,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6946,7 +6939,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6975,7 +6968,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7004,7 +6997,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7033,7 +7026,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7062,7 +7055,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7091,7 +7084,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7120,7 +7113,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7149,7 +7142,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7178,7 +7171,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7207,7 +7200,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7236,7 +7229,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7265,7 +7258,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7294,7 +7287,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7323,7 +7316,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7352,7 +7345,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7381,7 +7374,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7410,7 +7403,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7439,7 +7432,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7468,7 +7461,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7497,7 +7490,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7526,7 +7519,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7555,7 +7548,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7584,7 +7577,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7613,7 +7606,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7642,7 +7635,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7671,7 +7664,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7700,7 +7693,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7729,7 +7722,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7758,7 +7751,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7787,7 +7780,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7816,7 +7809,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7845,7 +7838,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7874,7 +7867,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7903,7 +7896,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7932,7 +7925,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7961,7 +7954,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7990,7 +7983,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8019,7 +8012,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8048,7 +8041,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8077,7 +8070,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8106,7 +8099,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8135,7 +8128,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8164,7 +8157,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8193,7 +8186,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8222,7 +8215,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8251,7 +8244,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8280,7 +8273,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8309,7 +8302,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8338,7 +8331,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8367,7 +8360,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8396,7 +8389,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8425,7 +8418,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8454,7 +8447,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8483,7 +8476,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8512,7 +8505,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8541,7 +8534,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8570,7 +8563,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8599,7 +8592,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8628,7 +8621,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8657,7 +8650,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8686,7 +8679,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8715,7 +8708,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8744,7 +8737,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8773,7 +8766,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8802,7 +8795,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8831,7 +8824,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8860,7 +8853,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8889,7 +8882,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8918,7 +8911,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8947,7 +8940,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8976,7 +8969,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9005,7 +8998,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9034,7 +9027,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9063,7 +9056,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9092,7 +9085,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9121,7 +9114,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9150,7 +9143,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9179,7 +9172,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9208,7 +9201,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9237,7 +9230,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9266,7 +9259,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9295,7 +9288,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9324,7 +9317,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9353,7 +9346,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9382,7 +9375,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9411,7 +9404,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9440,7 +9433,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9469,7 +9462,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9498,7 +9491,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9527,7 +9520,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9556,7 +9549,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9585,7 +9578,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9614,7 +9607,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9643,7 +9636,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9672,7 +9665,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9701,7 +9694,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9730,7 +9723,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9759,7 +9752,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9788,7 +9781,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9817,7 +9810,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9846,7 +9839,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9875,7 +9868,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9904,7 +9897,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9933,7 +9926,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9962,7 +9955,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9991,7 +9984,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10020,7 +10013,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10049,7 +10042,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10078,7 +10071,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10107,7 +10100,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10136,7 +10129,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10165,7 +10158,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10194,7 +10187,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10223,7 +10216,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10252,7 +10245,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10281,7 +10274,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10310,7 +10303,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10339,7 +10332,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10368,7 +10361,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10397,7 +10390,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10426,7 +10419,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10455,7 +10448,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10484,7 +10477,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10513,7 +10506,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10542,7 +10535,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10571,7 +10564,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10600,7 +10593,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10629,7 +10622,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10658,7 +10651,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10687,7 +10680,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10716,7 +10709,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10745,7 +10738,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10774,7 +10767,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10803,7 +10796,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10832,7 +10825,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10861,7 +10854,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10890,7 +10883,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10919,7 +10912,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10948,7 +10941,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10977,7 +10970,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -11006,7 +10999,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11035,7 +11028,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11064,7 +11057,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11093,7 +11086,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11122,7 +11115,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11151,7 +11144,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11180,7 +11173,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11209,7 +11202,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11238,7 +11231,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11267,7 +11260,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11296,7 +11289,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11325,7 +11318,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11354,7 +11347,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11383,7 +11376,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11412,7 +11405,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11441,7 +11434,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11470,7 +11463,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11499,7 +11492,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11528,7 +11521,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11557,7 +11550,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11586,7 +11579,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11615,7 +11608,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11644,7 +11637,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11673,7 +11666,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11702,7 +11695,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11731,7 +11724,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11760,7 +11753,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11789,7 +11782,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11818,7 +11811,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11847,7 +11840,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11876,7 +11869,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11905,7 +11898,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11934,7 +11927,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11963,7 +11956,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11992,7 +11985,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12021,7 +12014,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12050,7 +12043,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12079,7 +12072,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12108,7 +12101,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12137,7 +12130,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12166,7 +12159,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12195,7 +12188,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12224,7 +12217,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12253,7 +12246,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12282,7 +12275,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12311,7 +12304,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12340,7 +12333,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12369,7 +12362,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12398,7 +12391,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12427,7 +12420,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12456,7 +12449,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12485,7 +12478,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12514,7 +12507,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12543,7 +12536,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12572,7 +12565,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12601,7 +12594,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12630,7 +12623,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12659,7 +12652,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12688,7 +12681,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12717,7 +12710,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12746,7 +12739,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12775,7 +12768,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12804,7 +12797,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12833,7 +12826,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12862,7 +12855,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12891,7 +12884,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12920,7 +12913,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12949,7 +12942,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12978,7 +12971,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13007,7 +13000,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13036,7 +13029,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13065,7 +13058,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13094,7 +13087,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13123,7 +13116,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13152,7 +13145,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13181,7 +13174,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13210,7 +13203,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13239,7 +13232,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13268,7 +13261,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13297,7 +13290,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13326,7 +13319,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13355,7 +13348,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13384,7 +13377,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13413,7 +13406,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13442,7 +13435,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13471,7 +13464,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13500,7 +13493,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13529,7 +13522,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13558,7 +13551,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13587,7 +13580,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13616,7 +13609,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13645,7 +13638,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13674,7 +13667,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13703,7 +13696,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13732,7 +13725,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13761,7 +13754,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13790,7 +13783,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13819,7 +13812,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13848,7 +13841,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13877,7 +13870,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13906,7 +13899,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13935,7 +13928,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13964,7 +13957,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -13993,7 +13986,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14022,7 +14015,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14051,7 +14044,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14080,7 +14073,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14109,7 +14102,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14138,7 +14131,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14167,7 +14160,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14196,7 +14189,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14225,7 +14218,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14254,7 +14247,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14283,7 +14276,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14312,7 +14305,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14341,7 +14334,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14370,7 +14363,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14399,7 +14392,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14428,7 +14421,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14457,7 +14450,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14486,7 +14479,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14515,7 +14508,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14544,7 +14537,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14573,7 +14566,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14602,7 +14595,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14631,7 +14624,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14660,7 +14653,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14689,7 +14682,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14718,7 +14711,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14747,7 +14740,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14776,7 +14769,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14805,7 +14798,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14834,7 +14827,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14863,7 +14856,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14892,7 +14885,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14921,7 +14914,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14950,7 +14943,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14979,7 +14972,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15008,7 +15001,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15037,7 +15030,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15066,7 +15059,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15095,7 +15088,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15124,7 +15117,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15153,7 +15146,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15182,7 +15175,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15211,7 +15204,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15240,7 +15233,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15269,7 +15262,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15298,7 +15291,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15327,7 +15320,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15356,7 +15349,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15385,7 +15378,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15414,7 +15407,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15443,7 +15436,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15472,7 +15465,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15501,7 +15494,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15530,7 +15523,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15559,7 +15552,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15588,7 +15581,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15617,7 +15610,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15646,7 +15639,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15675,7 +15668,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15704,7 +15697,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15733,7 +15726,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15762,7 +15755,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15791,7 +15784,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15820,7 +15813,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15849,7 +15842,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15878,7 +15871,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15907,7 +15900,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15936,7 +15929,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15965,7 +15958,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -15994,7 +15987,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16023,7 +16016,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16052,7 +16045,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16081,7 +16074,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16110,7 +16103,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16139,7 +16132,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16168,7 +16161,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16197,7 +16190,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16226,7 +16219,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16255,7 +16248,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16284,7 +16277,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16313,7 +16306,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16342,7 +16335,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16371,7 +16364,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16400,7 +16393,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16429,7 +16422,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16458,7 +16451,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16487,7 +16480,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16516,7 +16509,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16545,7 +16538,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16574,7 +16567,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16603,7 +16596,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16632,7 +16625,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16661,7 +16654,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16690,7 +16683,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16719,7 +16712,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16748,7 +16741,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16777,7 +16770,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16806,7 +16799,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16835,7 +16828,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16864,7 +16857,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16893,7 +16886,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16922,7 +16915,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16951,7 +16944,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16980,7 +16973,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17009,7 +17002,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17038,7 +17031,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17067,7 +17060,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17096,7 +17089,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17125,7 +17118,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17154,7 +17147,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17183,7 +17176,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17212,7 +17205,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17241,7 +17234,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17270,7 +17263,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17299,7 +17292,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17328,7 +17321,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17357,7 +17350,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17386,7 +17379,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17415,7 +17408,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17444,7 +17437,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17473,7 +17466,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17502,7 +17495,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17531,7 +17524,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17560,7 +17553,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17589,7 +17582,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17618,7 +17611,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17647,7 +17640,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17676,7 +17669,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17705,7 +17698,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17734,7 +17727,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17763,7 +17756,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17792,7 +17785,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17821,7 +17814,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17850,7 +17843,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17879,7 +17872,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17908,7 +17901,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17937,7 +17930,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17966,7 +17959,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -17995,7 +17988,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -18024,7 +18017,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -18053,7 +18046,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -18082,7 +18075,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -18111,7 +18104,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -18140,7 +18133,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -18169,7 +18162,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -18198,7 +18191,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -18227,7 +18220,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -18256,7 +18249,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -18285,7 +18278,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -18314,7 +18307,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -18343,7 +18336,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18372,7 +18365,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18401,7 +18394,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18430,7 +18423,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18459,7 +18452,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18488,7 +18481,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18517,7 +18510,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18546,7 +18539,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18575,7 +18568,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18604,7 +18597,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18633,7 +18626,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18662,7 +18655,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18691,7 +18684,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18720,7 +18713,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18749,7 +18742,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18778,7 +18771,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18807,7 +18800,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18836,7 +18829,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18865,7 +18858,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18894,7 +18887,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18923,7 +18916,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18952,7 +18945,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18981,7 +18974,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -19010,7 +19003,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -19039,7 +19032,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -19068,7 +19061,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -19097,7 +19090,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -19126,7 +19119,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -19155,7 +19148,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -19184,7 +19177,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -19213,7 +19206,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -19242,7 +19235,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -19271,7 +19264,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -19300,7 +19293,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -19329,7 +19322,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -19358,7 +19351,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -19387,7 +19380,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19416,7 +19409,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19445,7 +19438,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19474,7 +19467,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19503,7 +19496,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19532,7 +19525,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19561,7 +19554,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19590,7 +19583,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19619,7 +19612,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19648,7 +19641,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19677,7 +19670,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19706,7 +19699,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19735,7 +19728,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19764,7 +19757,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19793,7 +19786,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19822,7 +19815,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19851,7 +19844,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19880,7 +19873,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19909,7 +19902,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19938,7 +19931,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19967,7 +19960,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -19996,7 +19989,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20025,7 +20018,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20054,7 +20047,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20083,7 +20076,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20112,7 +20105,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20141,7 +20134,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20170,7 +20163,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20199,7 +20192,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20228,7 +20221,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20257,7 +20250,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -20286,7 +20279,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -20315,7 +20308,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -20344,7 +20337,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -20373,7 +20366,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -20402,7 +20395,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -20431,7 +20424,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20460,7 +20453,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20489,7 +20482,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20518,7 +20511,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20547,7 +20540,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20576,7 +20569,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20605,7 +20598,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20634,7 +20627,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20663,7 +20656,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20692,7 +20685,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20721,7 +20714,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20750,7 +20743,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20779,7 +20772,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20808,7 +20801,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20837,7 +20830,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20866,7 +20859,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20895,7 +20888,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20924,7 +20917,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20953,7 +20946,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20982,7 +20975,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -21011,7 +21004,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -21040,7 +21033,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -21069,7 +21062,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -21098,7 +21091,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -21127,7 +21120,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -21156,7 +21149,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -21185,7 +21178,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -21214,7 +21207,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -21243,7 +21236,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -21272,7 +21265,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -21301,7 +21294,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -21330,7 +21323,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -21359,7 +21352,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -21388,7 +21381,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -21417,7 +21410,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -21446,7 +21439,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21475,7 +21468,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21504,7 +21497,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21533,7 +21526,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21562,7 +21555,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21591,7 +21584,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21620,7 +21613,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21649,7 +21642,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21678,7 +21671,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21707,7 +21700,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21736,7 +21729,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21765,7 +21758,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21794,7 +21787,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21823,7 +21816,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21852,7 +21845,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21881,7 +21874,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21910,7 +21903,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21939,7 +21932,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21968,7 +21961,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -21997,7 +21990,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -22026,7 +22019,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -22055,7 +22048,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -22084,7 +22077,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -22113,7 +22106,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -22142,7 +22135,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -22171,7 +22164,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -22200,7 +22193,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -22229,7 +22222,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -22258,7 +22251,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -22287,7 +22280,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -22316,7 +22309,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -22345,7 +22338,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -22374,7 +22367,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -22403,7 +22396,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -22432,7 +22425,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -22461,7 +22454,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -22490,7 +22483,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22519,7 +22512,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22548,7 +22541,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22577,7 +22570,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22606,7 +22599,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22635,7 +22628,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22664,7 +22657,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22693,7 +22686,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22722,7 +22715,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22751,7 +22744,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22780,7 +22773,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22809,7 +22802,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22838,7 +22831,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22867,7 +22860,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22896,7 +22889,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22925,7 +22918,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22954,7 +22947,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22983,7 +22976,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -23012,7 +23005,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -23041,7 +23034,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -23070,7 +23063,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -23099,7 +23092,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -23128,7 +23121,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -23157,7 +23150,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -23186,7 +23179,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -23215,7 +23208,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -23244,7 +23237,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -23273,7 +23266,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -23302,7 +23295,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -23331,7 +23324,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -23360,7 +23353,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -23389,7 +23382,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -23418,7 +23411,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -23447,7 +23440,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -23476,7 +23469,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -23505,7 +23498,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -23534,7 +23527,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23563,7 +23556,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23592,7 +23585,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23621,7 +23614,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23650,7 +23643,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23679,7 +23672,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23708,7 +23701,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23737,7 +23730,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23766,7 +23759,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23795,7 +23788,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23824,7 +23817,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23853,7 +23846,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23882,7 +23875,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23911,7 +23904,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23940,7 +23933,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23969,7 +23962,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -23998,7 +23991,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -24027,7 +24020,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -24056,7 +24049,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -24085,7 +24078,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -24114,7 +24107,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -24143,7 +24136,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -24172,7 +24165,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -24201,7 +24194,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -24230,7 +24223,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -24259,7 +24252,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -24288,7 +24281,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -24317,7 +24310,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -24346,7 +24339,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -24375,7 +24368,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -24404,7 +24397,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -24433,7 +24426,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -24462,7 +24455,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -24491,7 +24484,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -24520,7 +24513,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -24549,7 +24542,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -24578,7 +24571,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24607,7 +24600,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24636,7 +24629,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24665,7 +24658,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24694,7 +24687,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24723,7 +24716,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24752,7 +24745,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24781,7 +24774,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24810,7 +24803,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24839,7 +24832,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24868,7 +24861,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24897,7 +24890,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24926,7 +24919,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24955,7 +24948,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24984,7 +24977,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -25013,7 +25006,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -25042,7 +25035,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -25071,7 +25064,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -25100,7 +25093,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -25129,7 +25122,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -25158,7 +25151,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -25187,7 +25180,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -25216,7 +25209,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -25245,7 +25238,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -25274,7 +25267,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -25303,7 +25296,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -25332,7 +25325,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -25361,7 +25354,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -25390,7 +25383,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -25419,7 +25412,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -25448,7 +25441,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -25477,7 +25470,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -25506,7 +25499,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -25535,7 +25528,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -25564,7 +25557,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -25593,7 +25586,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25622,7 +25615,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25651,7 +25644,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25680,7 +25673,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25709,7 +25702,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25738,7 +25731,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25767,7 +25760,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25796,7 +25789,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25825,7 +25818,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25854,7 +25847,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25883,7 +25876,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25912,7 +25905,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25941,7 +25934,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25970,7 +25963,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25999,7 +25992,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -26028,7 +26021,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -26057,7 +26050,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -26086,7 +26079,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -26115,7 +26108,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -26144,7 +26137,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -26173,7 +26166,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -26202,7 +26195,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -26231,7 +26224,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -26260,7 +26253,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -26289,7 +26282,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -26318,7 +26311,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -26347,7 +26340,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -26376,7 +26369,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -26405,7 +26398,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -26434,7 +26427,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -26463,7 +26456,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -26492,7 +26485,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -26521,7 +26514,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -26550,7 +26543,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -26579,7 +26572,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -26608,7 +26601,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -26637,7 +26630,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26666,7 +26659,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26695,7 +26688,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26724,7 +26717,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26753,7 +26746,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26782,7 +26775,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26811,7 +26804,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26840,7 +26833,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26869,7 +26862,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26898,7 +26891,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26927,7 +26920,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26956,7 +26949,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26985,7 +26978,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -27014,7 +27007,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -27043,7 +27036,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -27072,7 +27065,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -27101,7 +27094,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -27130,7 +27123,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -27159,7 +27152,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -27188,7 +27181,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -27217,7 +27210,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -27246,7 +27239,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -27275,7 +27268,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -27304,7 +27297,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -27333,7 +27326,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -27362,7 +27355,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -27391,7 +27384,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -27420,7 +27413,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -27449,7 +27442,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -27478,7 +27471,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -27507,7 +27500,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -27536,7 +27529,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -27565,7 +27558,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -27594,7 +27587,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -27623,7 +27616,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -27652,7 +27645,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -27681,7 +27674,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27710,7 +27703,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27739,7 +27732,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27768,7 +27761,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27797,7 +27790,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27826,7 +27819,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27855,7 +27848,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27884,7 +27877,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27913,7 +27906,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27942,7 +27935,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27971,7 +27964,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -28000,7 +27993,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -28029,7 +28022,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -28058,7 +28051,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -28087,7 +28080,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -28116,7 +28109,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -28145,7 +28138,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -28174,7 +28167,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -28203,7 +28196,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -28232,7 +28225,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -28261,7 +28254,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -28290,7 +28283,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -28319,7 +28312,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -28348,7 +28341,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -28377,7 +28370,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -28406,7 +28399,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -28435,7 +28428,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -28464,7 +28457,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -28493,7 +28486,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -28522,7 +28515,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -28551,7 +28544,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -28580,7 +28573,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -28609,7 +28602,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -28638,7 +28631,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -28667,7 +28660,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -28696,7 +28689,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28725,7 +28718,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28754,7 +28747,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28783,7 +28776,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28812,7 +28805,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28841,7 +28834,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28870,7 +28863,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28899,7 +28892,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28928,7 +28921,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28957,7 +28950,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28986,7 +28979,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -29015,7 +29008,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -29044,7 +29037,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -29073,7 +29066,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -29102,7 +29095,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -29131,7 +29124,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -29160,7 +29153,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -29189,7 +29182,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -29218,7 +29211,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -29247,7 +29240,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -29276,7 +29269,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -29305,7 +29298,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -29334,7 +29327,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -29363,7 +29356,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -29392,7 +29385,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -29421,7 +29414,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -29450,7 +29443,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -29479,7 +29472,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -29508,7 +29501,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -29537,7 +29530,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -29566,7 +29559,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -29595,7 +29588,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -29624,7 +29617,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -29653,7 +29646,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -29682,7 +29675,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -29711,7 +29704,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -29740,7 +29733,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29769,7 +29762,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29798,7 +29791,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29827,7 +29820,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29856,7 +29849,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29885,7 +29878,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29914,7 +29907,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29943,7 +29936,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29972,7 +29965,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -30001,7 +29994,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -30030,7 +30023,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -30059,7 +30052,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -30088,7 +30081,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -30117,7 +30110,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -30146,7 +30139,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -30175,7 +30168,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -30204,7 +30197,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -30233,7 +30226,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39F8A0E-6DAC-434D-AE2F-884BF5DED2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330BB11-7679-414B-BB5D-C8FD7E176166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4785" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,10 +589,10 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -774,25 +774,25 @@
         <v>26</v>
       </c>
       <c r="C3" s="3">
-        <v>3.1776470589999999</v>
+        <v>3.8099908142267198</v>
       </c>
       <c r="D3" s="3">
-        <v>12.71058824</v>
+        <v>15.239963256906879</v>
       </c>
       <c r="E3" s="3">
-        <v>11.121764710000001</v>
+        <v>13.334967849793516</v>
       </c>
       <c r="F3" s="3">
-        <v>3.8527568919999999</v>
+        <v>5.0442037993743662</v>
       </c>
       <c r="G3" s="3">
-        <v>3.297243108</v>
+        <v>4.3155965839091799</v>
       </c>
       <c r="H3" s="3">
-        <v>3.6434891110000001</v>
+        <v>6.5803022134931641</v>
       </c>
       <c r="I3" s="3">
-        <v>3.8265108890000001</v>
+        <v>6.9093173241678212</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -801,16 +801,16 @@
         <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>9.4363870970000008</v>
+        <v>1.1975759651113547</v>
       </c>
       <c r="M3" s="3">
-        <v>1.8023906350000001</v>
+        <v>0.77842437732238057</v>
       </c>
       <c r="N3" s="3">
-        <v>8.8733774830000005</v>
+        <v>8.2397552479535676</v>
       </c>
       <c r="O3" s="3">
-        <v>14.496622520000001</v>
+        <v>13.458266904990829</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="3">
-        <v>11.434862109999999</v>
+        <v>12.406844507500125</v>
       </c>
       <c r="W3" s="3">
-        <v>8.0051378920000005</v>
+        <v>8.6847911552500872</v>
       </c>
       <c r="X3" s="3">
         <v>0</v>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A330BB11-7679-414B-BB5D-C8FD7E176166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C68EAD4-A0B0-47FA-8D22-61A8944D6AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4785" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,10 +589,10 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1770,25 +1770,25 @@
         <v>41</v>
       </c>
       <c r="C15" s="3">
-        <v>3123.0169507616724</v>
+        <v>2924</v>
       </c>
       <c r="D15" s="3">
-        <v>12492.067806977921</v>
+        <v>2924</v>
       </c>
       <c r="E15" s="3">
-        <v>10930.559331105682</v>
+        <v>2924</v>
       </c>
       <c r="F15" s="3">
-        <v>1002.6260425465119</v>
+        <v>3191.5555555555547</v>
       </c>
       <c r="G15" s="3">
-        <v>858.06135745348809</v>
+        <v>3191.5555555555547</v>
       </c>
       <c r="H15" s="3">
-        <v>1236.9099008478349</v>
+        <v>4407.5</v>
       </c>
       <c r="I15" s="3">
-        <v>1299.0430491521652</v>
+        <v>4407.5</v>
       </c>
       <c r="J15" s="3">
         <v>1104</v>
@@ -1797,16 +1797,16 @@
         <v>1435</v>
       </c>
       <c r="L15" s="3">
-        <v>2429.2506504839375</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="M15" s="3">
-        <v>463.99735168684407</v>
+        <v>309.67200000000003</v>
       </c>
       <c r="N15" s="3">
-        <v>3772.0550212683343</v>
+        <v>2264.666666666667</v>
       </c>
       <c r="O15" s="3">
-        <v>6162.4852400069612</v>
+        <v>2264.666666666667</v>
       </c>
       <c r="P15" s="3">
         <f>(P2/100)*(478771.7688+46926)</f>
@@ -1831,10 +1831,10 @@
         <v>3534</v>
       </c>
       <c r="V15" s="3">
-        <v>7319.2574134964962</v>
+        <v>2264.666666666667</v>
       </c>
       <c r="W15" s="3">
-        <v>5123.9502757836681</v>
+        <v>2264.666666666667</v>
       </c>
       <c r="X15" s="3">
         <v>1958.65</v>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Farm-Squire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C68EAD4-A0B0-47FA-8D22-61A8944D6AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993F931-5D25-4C8F-8A05-7BB52C975111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4785" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_input" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>unit_of_measurement</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>sale_value</t>
+  </si>
+  <si>
+    <t>€/ha</t>
   </si>
 </sst>
 </file>
@@ -589,20 +592,20 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T20" sqref="T20"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="27" width="13.265625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -683,7 +686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
@@ -766,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -849,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
@@ -932,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
@@ -1596,81 +1599,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3">
-        <v>0.18892474370000001</v>
+        <v>552.41595070458231</v>
       </c>
       <c r="D13" s="3">
-        <v>0.18892474370000001</v>
+        <v>552.41595070458231</v>
       </c>
       <c r="E13" s="3">
-        <v>0.18892474370000001</v>
+        <v>552.41595070458231</v>
       </c>
       <c r="F13" s="3">
-        <v>0.17306264120000001</v>
+        <v>552.4159507045822</v>
       </c>
       <c r="G13" s="3">
-        <v>0.17306264120000001</v>
+        <v>552.4159507045822</v>
       </c>
       <c r="H13" s="3">
-        <v>0.1253212229</v>
+        <v>552.4159507045822</v>
       </c>
       <c r="I13" s="3">
-        <v>0.1253212229</v>
+        <v>552.4159507045822</v>
       </c>
       <c r="J13" s="3">
-        <v>0.26355634309999998</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="K13" s="3">
-        <v>0.26355634309999998</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="L13" s="3">
-        <v>2.1586114680000001</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="M13" s="3">
-        <v>2.1586114680000001</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="N13" s="3">
-        <v>0.2954390972</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="O13" s="3">
-        <v>0.2954390972</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="P13" s="3">
-        <v>0.32803797550000002</v>
+        <v>552.4159507045822</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>552.4159507045822</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>552.4159507045822</v>
       </c>
       <c r="S13" s="3">
-        <v>0.2691240272</v>
+        <v>484.42324895801562</v>
       </c>
       <c r="T13" s="3">
-        <v>0.2691240272</v>
+        <v>484.42324895801562</v>
       </c>
       <c r="U13" s="3">
-        <v>0</v>
+        <v>484.42324895801562</v>
       </c>
       <c r="V13" s="3">
-        <v>0.25280300529999999</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="W13" s="3">
-        <v>0.25280300529999999</v>
+        <v>669.1695551108678</v>
       </c>
       <c r="X13" s="3">
-        <v>0.17933124149999999</v>
+        <v>552.41595070458231</v>
       </c>
       <c r="Y13" s="3">
-        <v>0.17933124149999999</v>
+        <v>552.41595070458231</v>
       </c>
       <c r="Z13" s="3">
         <v>0</v>
@@ -1679,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>59</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -1952,19 +1955,22 @@
         <v>21.92</v>
       </c>
       <c r="G17" s="9">
-        <v>8640</v>
+        <f xml:space="preserve"> 8640 / 1000</f>
+        <v>8.64</v>
       </c>
       <c r="H17" s="9">
         <v>17.600000000000001</v>
       </c>
       <c r="I17" s="9">
-        <v>6560</v>
+        <f>6560 / 1000</f>
+        <v>6.56</v>
       </c>
       <c r="J17" s="9">
         <v>38.4</v>
       </c>
       <c r="K17" s="9">
-        <v>9120</v>
+        <f xml:space="preserve"> 9120 / 1000</f>
+        <v>9.1199999999999992</v>
       </c>
       <c r="L17" s="9">
         <v>41.6</v>
@@ -2015,7 +2021,7 @@
         <v>78.239999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>51</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>52</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2541,7 +2547,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2569,7 +2575,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2597,7 +2603,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2624,7 +2630,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2651,7 +2657,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2678,7 +2684,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2705,7 +2711,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2734,7 +2740,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2763,7 +2769,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2792,7 +2798,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2821,7 +2827,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2850,7 +2856,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2879,7 +2885,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2908,7 +2914,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2937,7 +2943,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2966,7 +2972,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2995,7 +3001,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3024,7 +3030,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3053,7 +3059,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3082,7 +3088,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3111,7 +3117,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3140,7 +3146,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3169,7 +3175,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3198,7 +3204,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3227,7 +3233,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3256,7 +3262,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3285,7 +3291,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3314,7 +3320,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3343,7 +3349,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3372,7 +3378,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3401,7 +3407,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3430,7 +3436,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3459,7 +3465,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3488,7 +3494,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3517,7 +3523,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3546,7 +3552,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3575,7 +3581,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3604,7 +3610,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3633,7 +3639,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3662,7 +3668,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3691,7 +3697,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3720,7 +3726,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3749,7 +3755,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3778,7 +3784,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3807,7 +3813,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3836,7 +3842,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3865,7 +3871,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3894,7 +3900,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3923,7 +3929,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3952,7 +3958,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3981,7 +3987,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4010,7 +4016,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4039,7 +4045,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4068,7 +4074,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4097,7 +4103,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4126,7 +4132,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4155,7 +4161,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4184,7 +4190,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4213,7 +4219,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4242,7 +4248,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4271,7 +4277,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4300,7 +4306,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4329,7 +4335,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4358,7 +4364,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4387,7 +4393,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4416,7 +4422,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4445,7 +4451,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4474,7 +4480,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4503,7 +4509,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4532,7 +4538,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4561,7 +4567,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4590,7 +4596,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4619,7 +4625,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4648,7 +4654,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4677,7 +4683,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4706,7 +4712,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4735,7 +4741,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4764,7 +4770,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4793,7 +4799,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4822,7 +4828,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4851,7 +4857,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4880,7 +4886,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4909,7 +4915,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4938,7 +4944,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4967,7 +4973,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4996,7 +5002,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5025,7 +5031,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5054,7 +5060,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5083,7 +5089,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5112,7 +5118,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5141,7 +5147,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5170,7 +5176,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5199,7 +5205,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5228,7 +5234,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5257,7 +5263,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5286,7 +5292,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5315,7 +5321,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5344,7 +5350,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5373,7 +5379,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5402,7 +5408,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5431,7 +5437,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5460,7 +5466,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5489,7 +5495,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5518,7 +5524,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5547,7 +5553,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5576,7 +5582,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5605,7 +5611,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5634,7 +5640,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5663,7 +5669,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5692,7 +5698,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5721,7 +5727,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5750,7 +5756,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5779,7 +5785,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5808,7 +5814,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5837,7 +5843,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5866,7 +5872,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5895,7 +5901,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5924,7 +5930,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5953,7 +5959,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5982,7 +5988,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6011,7 +6017,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6040,7 +6046,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6069,7 +6075,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6098,7 +6104,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6127,7 +6133,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6156,7 +6162,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6185,7 +6191,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6214,7 +6220,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6243,7 +6249,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6272,7 +6278,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6301,7 +6307,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6330,7 +6336,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6359,7 +6365,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6388,7 +6394,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6417,7 +6423,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6446,7 +6452,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6475,7 +6481,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6504,7 +6510,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6533,7 +6539,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6562,7 +6568,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6591,7 +6597,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6620,7 +6626,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6649,7 +6655,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6678,7 +6684,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6707,7 +6713,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6736,7 +6742,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6765,7 +6771,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6794,7 +6800,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6823,7 +6829,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6852,7 +6858,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6881,7 +6887,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6910,7 +6916,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6939,7 +6945,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6968,7 +6974,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6997,7 +7003,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7026,7 +7032,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7055,7 +7061,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7084,7 +7090,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7113,7 +7119,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7142,7 +7148,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7171,7 +7177,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7200,7 +7206,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7229,7 +7235,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7258,7 +7264,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7287,7 +7293,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7316,7 +7322,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7345,7 +7351,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7374,7 +7380,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7403,7 +7409,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7432,7 +7438,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7461,7 +7467,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7490,7 +7496,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7519,7 +7525,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7548,7 +7554,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7577,7 +7583,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7606,7 +7612,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7635,7 +7641,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7664,7 +7670,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7693,7 +7699,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7722,7 +7728,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7751,7 +7757,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7780,7 +7786,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7809,7 +7815,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7838,7 +7844,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7867,7 +7873,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7896,7 +7902,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7925,7 +7931,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7954,7 +7960,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7983,7 +7989,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8012,7 +8018,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8041,7 +8047,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8070,7 +8076,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8099,7 +8105,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8128,7 +8134,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8157,7 +8163,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8186,7 +8192,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8215,7 +8221,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8244,7 +8250,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8273,7 +8279,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8302,7 +8308,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8331,7 +8337,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8360,7 +8366,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8389,7 +8395,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8418,7 +8424,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8447,7 +8453,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8476,7 +8482,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8505,7 +8511,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8534,7 +8540,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8563,7 +8569,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8592,7 +8598,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8621,7 +8627,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8650,7 +8656,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8679,7 +8685,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8708,7 +8714,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8737,7 +8743,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8766,7 +8772,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8795,7 +8801,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8824,7 +8830,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8853,7 +8859,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8882,7 +8888,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8911,7 +8917,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8940,7 +8946,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8969,7 +8975,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8998,7 +9004,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9027,7 +9033,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9056,7 +9062,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9085,7 +9091,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9114,7 +9120,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9143,7 +9149,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9172,7 +9178,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9201,7 +9207,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9230,7 +9236,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9259,7 +9265,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9288,7 +9294,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9317,7 +9323,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9346,7 +9352,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9375,7 +9381,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9404,7 +9410,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9433,7 +9439,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9462,7 +9468,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9491,7 +9497,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9520,7 +9526,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9549,7 +9555,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9578,7 +9584,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9607,7 +9613,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9636,7 +9642,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9665,7 +9671,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9694,7 +9700,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9723,7 +9729,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9752,7 +9758,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9781,7 +9787,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9810,7 +9816,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9839,7 +9845,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9868,7 +9874,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9897,7 +9903,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9926,7 +9932,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9955,7 +9961,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9984,7 +9990,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10013,7 +10019,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10042,7 +10048,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10071,7 +10077,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10100,7 +10106,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10129,7 +10135,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10158,7 +10164,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10187,7 +10193,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10216,7 +10222,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10245,7 +10251,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10274,7 +10280,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10303,7 +10309,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10332,7 +10338,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10361,7 +10367,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10390,7 +10396,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10419,7 +10425,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10448,7 +10454,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10477,7 +10483,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10506,7 +10512,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10535,7 +10541,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10564,7 +10570,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10593,7 +10599,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10622,7 +10628,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10651,7 +10657,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10680,7 +10686,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10709,7 +10715,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10738,7 +10744,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10767,7 +10773,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10796,7 +10802,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10825,7 +10831,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10854,7 +10860,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10883,7 +10889,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10912,7 +10918,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10941,7 +10947,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10970,7 +10976,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -10999,7 +11005,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11028,7 +11034,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11057,7 +11063,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11086,7 +11092,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11115,7 +11121,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11144,7 +11150,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11173,7 +11179,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11202,7 +11208,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11231,7 +11237,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11260,7 +11266,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11289,7 +11295,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11318,7 +11324,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11347,7 +11353,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11376,7 +11382,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11405,7 +11411,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11434,7 +11440,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11463,7 +11469,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11492,7 +11498,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11521,7 +11527,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11550,7 +11556,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11579,7 +11585,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11608,7 +11614,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11637,7 +11643,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11666,7 +11672,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11695,7 +11701,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11724,7 +11730,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11753,7 +11759,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11782,7 +11788,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11811,7 +11817,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11840,7 +11846,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11869,7 +11875,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11898,7 +11904,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11927,7 +11933,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11956,7 +11962,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11985,7 +11991,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12014,7 +12020,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12043,7 +12049,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12072,7 +12078,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12101,7 +12107,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12130,7 +12136,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12159,7 +12165,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12188,7 +12194,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12217,7 +12223,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12246,7 +12252,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12275,7 +12281,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12304,7 +12310,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12333,7 +12339,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12362,7 +12368,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12391,7 +12397,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12420,7 +12426,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12449,7 +12455,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12478,7 +12484,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12507,7 +12513,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12536,7 +12542,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12565,7 +12571,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12594,7 +12600,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12623,7 +12629,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12652,7 +12658,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12681,7 +12687,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12710,7 +12716,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12739,7 +12745,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12768,7 +12774,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12797,7 +12803,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12826,7 +12832,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12855,7 +12861,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12884,7 +12890,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12913,7 +12919,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12942,7 +12948,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12971,7 +12977,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13000,7 +13006,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13029,7 +13035,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13058,7 +13064,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13087,7 +13093,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13116,7 +13122,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13145,7 +13151,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13174,7 +13180,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13203,7 +13209,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13232,7 +13238,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13261,7 +13267,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13290,7 +13296,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13319,7 +13325,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13348,7 +13354,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13377,7 +13383,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13406,7 +13412,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13435,7 +13441,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13464,7 +13470,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13493,7 +13499,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13522,7 +13528,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13551,7 +13557,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13580,7 +13586,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13609,7 +13615,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13638,7 +13644,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13667,7 +13673,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13696,7 +13702,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13725,7 +13731,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13754,7 +13760,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13783,7 +13789,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13812,7 +13818,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13841,7 +13847,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13870,7 +13876,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13899,7 +13905,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13928,7 +13934,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13957,7 +13963,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -13986,7 +13992,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14015,7 +14021,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14044,7 +14050,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14073,7 +14079,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14102,7 +14108,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14131,7 +14137,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14160,7 +14166,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14189,7 +14195,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14218,7 +14224,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14247,7 +14253,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14276,7 +14282,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14305,7 +14311,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14334,7 +14340,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14363,7 +14369,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14392,7 +14398,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14421,7 +14427,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14450,7 +14456,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14479,7 +14485,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14508,7 +14514,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14537,7 +14543,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14566,7 +14572,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14595,7 +14601,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14624,7 +14630,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14653,7 +14659,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14682,7 +14688,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14711,7 +14717,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14740,7 +14746,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14769,7 +14775,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14798,7 +14804,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14827,7 +14833,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14856,7 +14862,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14885,7 +14891,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14914,7 +14920,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14943,7 +14949,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14972,7 +14978,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15001,7 +15007,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15030,7 +15036,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15059,7 +15065,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15088,7 +15094,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15117,7 +15123,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15146,7 +15152,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15175,7 +15181,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15204,7 +15210,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15233,7 +15239,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15262,7 +15268,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15291,7 +15297,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15320,7 +15326,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15349,7 +15355,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15378,7 +15384,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15407,7 +15413,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15436,7 +15442,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15465,7 +15471,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15494,7 +15500,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15523,7 +15529,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15552,7 +15558,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15581,7 +15587,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15610,7 +15616,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15639,7 +15645,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15668,7 +15674,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15697,7 +15703,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15726,7 +15732,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15755,7 +15761,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15784,7 +15790,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15813,7 +15819,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15842,7 +15848,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15871,7 +15877,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15900,7 +15906,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15929,7 +15935,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15958,7 +15964,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -15987,7 +15993,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16016,7 +16022,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16045,7 +16051,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16074,7 +16080,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16103,7 +16109,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16132,7 +16138,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16161,7 +16167,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16190,7 +16196,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16219,7 +16225,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16248,7 +16254,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16277,7 +16283,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16306,7 +16312,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16335,7 +16341,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16364,7 +16370,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16393,7 +16399,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16422,7 +16428,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16451,7 +16457,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16480,7 +16486,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16509,7 +16515,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16538,7 +16544,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16567,7 +16573,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16596,7 +16602,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16625,7 +16631,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16654,7 +16660,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16683,7 +16689,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16712,7 +16718,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16741,7 +16747,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16770,7 +16776,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16799,7 +16805,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16828,7 +16834,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16857,7 +16863,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16886,7 +16892,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16915,7 +16921,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16944,7 +16950,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16973,7 +16979,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17002,7 +17008,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17031,7 +17037,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17060,7 +17066,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17089,7 +17095,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17118,7 +17124,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17147,7 +17153,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17176,7 +17182,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17205,7 +17211,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17234,7 +17240,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17263,7 +17269,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17292,7 +17298,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17321,7 +17327,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17350,7 +17356,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17379,7 +17385,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17408,7 +17414,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17437,7 +17443,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17466,7 +17472,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17495,7 +17501,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17524,7 +17530,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17553,7 +17559,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17582,7 +17588,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17611,7 +17617,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17640,7 +17646,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17669,7 +17675,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17698,7 +17704,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17727,7 +17733,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17756,7 +17762,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17785,7 +17791,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17814,7 +17820,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17843,7 +17849,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17872,7 +17878,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17901,7 +17907,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17930,7 +17936,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17959,7 +17965,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -17988,7 +17994,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -18017,7 +18023,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -18046,7 +18052,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -18075,7 +18081,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -18104,7 +18110,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -18133,7 +18139,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -18162,7 +18168,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -18191,7 +18197,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -18220,7 +18226,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -18249,7 +18255,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -18278,7 +18284,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -18307,7 +18313,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -18336,7 +18342,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18365,7 +18371,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18394,7 +18400,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18423,7 +18429,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18452,7 +18458,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18481,7 +18487,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18510,7 +18516,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18539,7 +18545,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18568,7 +18574,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18597,7 +18603,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18626,7 +18632,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18655,7 +18661,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18684,7 +18690,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18713,7 +18719,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18742,7 +18748,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18771,7 +18777,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18800,7 +18806,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18829,7 +18835,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18858,7 +18864,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18887,7 +18893,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18916,7 +18922,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18945,7 +18951,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18974,7 +18980,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -19003,7 +19009,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -19032,7 +19038,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -19061,7 +19067,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -19090,7 +19096,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -19119,7 +19125,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -19148,7 +19154,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -19177,7 +19183,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -19206,7 +19212,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -19235,7 +19241,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -19264,7 +19270,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -19293,7 +19299,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -19322,7 +19328,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -19351,7 +19357,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -19380,7 +19386,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19409,7 +19415,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19438,7 +19444,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19467,7 +19473,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19496,7 +19502,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19525,7 +19531,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19554,7 +19560,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19583,7 +19589,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19612,7 +19618,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19641,7 +19647,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19670,7 +19676,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19699,7 +19705,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19728,7 +19734,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19757,7 +19763,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19786,7 +19792,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19815,7 +19821,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19844,7 +19850,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19873,7 +19879,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19902,7 +19908,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19931,7 +19937,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19960,7 +19966,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -19989,7 +19995,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20018,7 +20024,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20047,7 +20053,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20076,7 +20082,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20105,7 +20111,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20134,7 +20140,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20163,7 +20169,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20192,7 +20198,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20221,7 +20227,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20250,7 +20256,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -20279,7 +20285,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -20308,7 +20314,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -20337,7 +20343,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -20366,7 +20372,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -20395,7 +20401,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -20424,7 +20430,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20453,7 +20459,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20482,7 +20488,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20511,7 +20517,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20540,7 +20546,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20569,7 +20575,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20598,7 +20604,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20627,7 +20633,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20656,7 +20662,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20685,7 +20691,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20714,7 +20720,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20743,7 +20749,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20772,7 +20778,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20801,7 +20807,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20830,7 +20836,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20859,7 +20865,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20888,7 +20894,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20917,7 +20923,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20946,7 +20952,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20975,7 +20981,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -21004,7 +21010,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -21033,7 +21039,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -21062,7 +21068,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -21091,7 +21097,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -21120,7 +21126,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -21149,7 +21155,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -21178,7 +21184,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -21207,7 +21213,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -21236,7 +21242,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -21265,7 +21271,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -21294,7 +21300,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -21323,7 +21329,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -21352,7 +21358,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -21381,7 +21387,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -21410,7 +21416,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -21439,7 +21445,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21468,7 +21474,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21497,7 +21503,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21526,7 +21532,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21555,7 +21561,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21584,7 +21590,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21613,7 +21619,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21642,7 +21648,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21671,7 +21677,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21700,7 +21706,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21729,7 +21735,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21758,7 +21764,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21787,7 +21793,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21816,7 +21822,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21845,7 +21851,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21874,7 +21880,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21903,7 +21909,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21932,7 +21938,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21961,7 +21967,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -21990,7 +21996,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -22019,7 +22025,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -22048,7 +22054,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -22077,7 +22083,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -22106,7 +22112,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -22135,7 +22141,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -22164,7 +22170,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -22193,7 +22199,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -22222,7 +22228,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -22251,7 +22257,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -22280,7 +22286,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -22309,7 +22315,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -22338,7 +22344,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -22367,7 +22373,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -22396,7 +22402,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -22425,7 +22431,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -22454,7 +22460,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -22483,7 +22489,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22512,7 +22518,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22541,7 +22547,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22570,7 +22576,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22599,7 +22605,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22628,7 +22634,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22657,7 +22663,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22686,7 +22692,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22715,7 +22721,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22744,7 +22750,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22773,7 +22779,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22802,7 +22808,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22831,7 +22837,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22860,7 +22866,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22889,7 +22895,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22918,7 +22924,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22947,7 +22953,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22976,7 +22982,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -23005,7 +23011,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -23034,7 +23040,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -23063,7 +23069,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -23092,7 +23098,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -23121,7 +23127,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -23150,7 +23156,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -23179,7 +23185,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -23208,7 +23214,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -23237,7 +23243,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -23266,7 +23272,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -23295,7 +23301,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -23324,7 +23330,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -23353,7 +23359,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -23382,7 +23388,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -23411,7 +23417,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -23440,7 +23446,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -23469,7 +23475,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -23498,7 +23504,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -23527,7 +23533,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23556,7 +23562,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23585,7 +23591,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23614,7 +23620,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23643,7 +23649,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23672,7 +23678,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23701,7 +23707,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23730,7 +23736,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23759,7 +23765,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23788,7 +23794,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23817,7 +23823,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23846,7 +23852,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23875,7 +23881,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23904,7 +23910,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23933,7 +23939,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23962,7 +23968,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -23991,7 +23997,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -24020,7 +24026,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -24049,7 +24055,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -24078,7 +24084,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -24107,7 +24113,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -24136,7 +24142,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -24165,7 +24171,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -24194,7 +24200,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -24223,7 +24229,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -24252,7 +24258,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -24281,7 +24287,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -24310,7 +24316,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -24339,7 +24345,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -24368,7 +24374,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -24397,7 +24403,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -24426,7 +24432,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -24455,7 +24461,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -24484,7 +24490,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -24513,7 +24519,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -24542,7 +24548,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -24571,7 +24577,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24600,7 +24606,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24629,7 +24635,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24658,7 +24664,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24687,7 +24693,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24716,7 +24722,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24745,7 +24751,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24774,7 +24780,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24803,7 +24809,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24832,7 +24838,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24861,7 +24867,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24890,7 +24896,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24919,7 +24925,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24948,7 +24954,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24977,7 +24983,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -25006,7 +25012,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -25035,7 +25041,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -25064,7 +25070,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -25093,7 +25099,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -25122,7 +25128,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -25151,7 +25157,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -25180,7 +25186,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -25209,7 +25215,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -25238,7 +25244,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -25267,7 +25273,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -25296,7 +25302,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -25325,7 +25331,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -25354,7 +25360,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -25383,7 +25389,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -25412,7 +25418,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -25441,7 +25447,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -25470,7 +25476,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -25499,7 +25505,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -25528,7 +25534,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -25557,7 +25563,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -25586,7 +25592,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25615,7 +25621,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25644,7 +25650,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25673,7 +25679,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25702,7 +25708,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25731,7 +25737,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25760,7 +25766,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25789,7 +25795,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25818,7 +25824,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25847,7 +25853,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25876,7 +25882,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25905,7 +25911,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25934,7 +25940,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25963,7 +25969,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -25992,7 +25998,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -26021,7 +26027,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -26050,7 +26056,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -26079,7 +26085,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -26108,7 +26114,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -26137,7 +26143,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -26166,7 +26172,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -26195,7 +26201,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -26224,7 +26230,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -26253,7 +26259,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -26282,7 +26288,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -26311,7 +26317,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -26340,7 +26346,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -26369,7 +26375,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -26398,7 +26404,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -26427,7 +26433,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -26456,7 +26462,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -26485,7 +26491,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -26514,7 +26520,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -26543,7 +26549,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -26572,7 +26578,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -26601,7 +26607,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -26630,7 +26636,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26659,7 +26665,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26688,7 +26694,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26717,7 +26723,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26746,7 +26752,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26775,7 +26781,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26804,7 +26810,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26833,7 +26839,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26862,7 +26868,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26891,7 +26897,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26920,7 +26926,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26949,7 +26955,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26978,7 +26984,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -27007,7 +27013,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -27036,7 +27042,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -27065,7 +27071,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -27094,7 +27100,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -27123,7 +27129,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -27152,7 +27158,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -27181,7 +27187,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -27210,7 +27216,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -27239,7 +27245,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -27268,7 +27274,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -27297,7 +27303,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -27326,7 +27332,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -27355,7 +27361,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -27384,7 +27390,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -27413,7 +27419,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -27442,7 +27448,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -27471,7 +27477,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -27500,7 +27506,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -27529,7 +27535,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -27558,7 +27564,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -27587,7 +27593,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -27616,7 +27622,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -27645,7 +27651,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -27674,7 +27680,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27703,7 +27709,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27732,7 +27738,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27761,7 +27767,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27790,7 +27796,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27819,7 +27825,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27848,7 +27854,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27877,7 +27883,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27906,7 +27912,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27935,7 +27941,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27964,7 +27970,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -27993,7 +27999,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -28022,7 +28028,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -28051,7 +28057,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -28080,7 +28086,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -28109,7 +28115,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -28138,7 +28144,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -28167,7 +28173,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -28196,7 +28202,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -28225,7 +28231,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -28254,7 +28260,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -28283,7 +28289,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -28312,7 +28318,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -28341,7 +28347,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -28370,7 +28376,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -28399,7 +28405,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -28428,7 +28434,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -28457,7 +28463,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -28486,7 +28492,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -28515,7 +28521,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -28544,7 +28550,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -28573,7 +28579,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -28602,7 +28608,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -28631,7 +28637,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -28660,7 +28666,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -28689,7 +28695,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28718,7 +28724,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28747,7 +28753,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28776,7 +28782,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28805,7 +28811,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28834,7 +28840,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28863,7 +28869,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28892,7 +28898,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28921,7 +28927,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28950,7 +28956,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28979,7 +28985,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -29008,7 +29014,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -29037,7 +29043,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -29066,7 +29072,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -29095,7 +29101,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -29124,7 +29130,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -29153,7 +29159,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -29182,7 +29188,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -29211,7 +29217,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -29240,7 +29246,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -29269,7 +29275,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -29298,7 +29304,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -29327,7 +29333,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -29356,7 +29362,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -29385,7 +29391,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -29414,7 +29420,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -29443,7 +29449,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -29472,7 +29478,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -29501,7 +29507,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -29530,7 +29536,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -29559,7 +29565,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -29588,7 +29594,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -29617,7 +29623,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -29646,7 +29652,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -29675,7 +29681,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -29704,7 +29710,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -29733,7 +29739,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29762,7 +29768,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29791,7 +29797,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29820,7 +29826,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29849,7 +29855,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29878,7 +29884,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29907,7 +29913,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29936,7 +29942,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29965,7 +29971,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -29994,7 +30000,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -30023,7 +30029,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -30052,7 +30058,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -30081,7 +30087,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -30110,7 +30116,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -30139,7 +30145,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -30168,7 +30174,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -30197,7 +30203,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -30226,7 +30232,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D993F931-5D25-4C8F-8A05-7BB52C975111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51ED83-7A43-45F9-900E-C41CDB3F96C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -592,10 +592,10 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1600,10 +1600,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="3">

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E51ED83-7A43-45F9-900E-C41CDB3F96C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03422852-7C1E-486C-B26E-81C83E54C52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,12 +278,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +314,14 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,6 +340,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,10 +356,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,8 +388,12 @@
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -592,10 +610,10 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1731,10 +1749,10 @@
       <c r="P14" s="3">
         <v>1.2262711700000001E-3</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="20">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="21">
         <v>0</v>
       </c>
       <c r="S14" s="3">
@@ -1815,12 +1833,12 @@
         <f>(P2/100)*(478771.7688+46926)</f>
         <v>91332.797150337021</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="21">
         <f t="shared" ref="Q15:S15" si="0">(Q2/100)*(478771.7688+46926)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="3">
-        <f t="shared" si="0"/>
+      <c r="R15" s="19">
+        <f>(R2/100)*(478771.7688+46926)</f>
         <v>341684.45501022291</v>
       </c>
       <c r="S15" s="3">

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Farm-Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03422852-7C1E-486C-B26E-81C83E54C52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC175F-9E04-471D-80FA-B15907A5C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_input" sheetId="1" r:id="rId1"/>
@@ -278,13 +278,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,12 +312,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -356,44 +349,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,20 +600,20 @@
   <dimension ref="A1:AA985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="27" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+    <col min="3" max="27" width="13.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -704,7 +694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
@@ -787,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -870,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
@@ -953,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1036,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
@@ -1119,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -1202,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -1368,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
@@ -1534,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
@@ -1617,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>58</v>
       </c>
@@ -1700,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
@@ -1749,10 +1739,10 @@
       <c r="P14" s="3">
         <v>1.2262711700000001E-3</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="19">
         <v>0</v>
       </c>
-      <c r="R14" s="21">
+      <c r="R14" s="20">
         <v>0</v>
       </c>
       <c r="S14" s="3">
@@ -1783,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1830,26 +1820,22 @@
         <v>2264.666666666667</v>
       </c>
       <c r="P15" s="3">
-        <f>(P2/100)*(478771.7688+46926)</f>
-        <v>91332.797150337021</v>
-      </c>
-      <c r="Q15" s="21">
-        <f t="shared" ref="Q15:S15" si="0">(Q2/100)*(478771.7688+46926)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="19">
-        <f>(R2/100)*(478771.7688+46926)</f>
-        <v>341684.45501022291</v>
+        <v>9790.2350000000006</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>9790.2350000000006</v>
+      </c>
+      <c r="R15" s="3">
+        <v>9790.2350000000006</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="0"/>
-        <v>92675.259661751988</v>
+        <v>9790.2350000000006</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>9790.2350000000006</v>
       </c>
       <c r="U15" s="3">
-        <v>3534</v>
+        <v>9790.2350000000006</v>
       </c>
       <c r="V15" s="3">
         <v>2264.666666666667</v>
@@ -1870,7 +1856,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>59</v>
       </c>
@@ -1953,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -2039,7 +2025,7 @@
         <v>78.239999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -2122,7 +2108,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -2205,7 +2191,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2288,7 +2274,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
@@ -2371,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>51</v>
       </c>
@@ -2454,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>52</v>
       </c>
@@ -2537,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2565,7 +2551,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2593,7 +2579,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2621,7 +2607,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2648,7 +2634,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2675,7 +2661,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2702,7 +2688,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2729,7 +2715,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2758,7 +2744,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2787,7 +2773,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2816,7 +2802,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2845,7 +2831,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2874,7 +2860,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2903,7 +2889,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2932,7 +2918,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2961,7 +2947,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2990,7 +2976,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3019,7 +3005,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3048,7 +3034,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3077,7 +3063,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3106,7 +3092,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3135,7 +3121,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3164,7 +3150,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3193,7 +3179,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3222,7 +3208,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3251,7 +3237,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3280,7 +3266,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3309,7 +3295,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3338,7 +3324,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3367,7 +3353,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3396,7 +3382,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3425,7 +3411,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3454,7 +3440,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3483,7 +3469,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3512,7 +3498,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3541,7 +3527,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3570,7 +3556,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3599,7 +3585,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3628,7 +3614,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3657,7 +3643,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3686,7 +3672,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3715,7 +3701,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3744,7 +3730,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3773,7 +3759,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3802,7 +3788,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3831,7 +3817,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3860,7 +3846,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3889,7 +3875,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3918,7 +3904,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3947,7 +3933,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3976,7 +3962,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4005,7 +3991,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4034,7 +4020,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4063,7 +4049,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4092,7 +4078,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4121,7 +4107,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4150,7 +4136,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4179,7 +4165,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4208,7 +4194,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4237,7 +4223,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4266,7 +4252,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4295,7 +4281,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4324,7 +4310,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4353,7 +4339,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4382,7 +4368,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4411,7 +4397,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4440,7 +4426,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4469,7 +4455,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4498,7 +4484,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4527,7 +4513,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4556,7 +4542,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4585,7 +4571,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4614,7 +4600,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4643,7 +4629,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4672,7 +4658,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4701,7 +4687,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4730,7 +4716,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4759,7 +4745,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4788,7 +4774,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4817,7 +4803,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4846,7 +4832,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4875,7 +4861,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4904,7 +4890,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4933,7 +4919,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4962,7 +4948,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4991,7 +4977,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5020,7 +5006,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5049,7 +5035,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5078,7 +5064,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5107,7 +5093,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5136,7 +5122,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5165,7 +5151,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5194,7 +5180,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5223,7 +5209,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5252,7 +5238,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5281,7 +5267,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5310,7 +5296,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5339,7 +5325,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5368,7 +5354,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5397,7 +5383,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5426,7 +5412,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5455,7 +5441,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5484,7 +5470,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5513,7 +5499,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5542,7 +5528,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5571,7 +5557,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5600,7 +5586,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5629,7 +5615,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5658,7 +5644,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5687,7 +5673,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5716,7 +5702,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5745,7 +5731,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5774,7 +5760,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5803,7 +5789,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5832,7 +5818,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5861,7 +5847,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5890,7 +5876,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5919,7 +5905,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5948,7 +5934,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5977,7 +5963,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6006,7 +5992,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6035,7 +6021,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6064,7 +6050,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6093,7 +6079,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6122,7 +6108,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6151,7 +6137,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6180,7 +6166,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6209,7 +6195,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6238,7 +6224,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6267,7 +6253,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6296,7 +6282,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6325,7 +6311,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6354,7 +6340,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6383,7 +6369,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6412,7 +6398,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6441,7 +6427,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6470,7 +6456,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6499,7 +6485,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6528,7 +6514,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6557,7 +6543,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6586,7 +6572,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6615,7 +6601,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6644,7 +6630,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6673,7 +6659,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6702,7 +6688,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6731,7 +6717,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6760,7 +6746,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6789,7 +6775,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6818,7 +6804,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6847,7 +6833,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6876,7 +6862,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6905,7 +6891,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6934,7 +6920,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6963,7 +6949,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6992,7 +6978,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7021,7 +7007,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7050,7 +7036,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7079,7 +7065,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7108,7 +7094,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7137,7 +7123,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7166,7 +7152,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7195,7 +7181,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7224,7 +7210,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7253,7 +7239,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7282,7 +7268,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7311,7 +7297,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7340,7 +7326,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7369,7 +7355,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7398,7 +7384,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7427,7 +7413,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7456,7 +7442,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7485,7 +7471,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7514,7 +7500,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7543,7 +7529,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7572,7 +7558,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7601,7 +7587,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7630,7 +7616,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7659,7 +7645,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7688,7 +7674,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7717,7 +7703,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7746,7 +7732,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7775,7 +7761,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7804,7 +7790,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7833,7 +7819,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7862,7 +7848,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7891,7 +7877,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7920,7 +7906,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7949,7 +7935,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7978,7 +7964,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -8007,7 +7993,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8036,7 +8022,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8065,7 +8051,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8094,7 +8080,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8123,7 +8109,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8152,7 +8138,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8181,7 +8167,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8210,7 +8196,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8239,7 +8225,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8268,7 +8254,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8297,7 +8283,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8326,7 +8312,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8355,7 +8341,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8384,7 +8370,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8413,7 +8399,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8442,7 +8428,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8471,7 +8457,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8500,7 +8486,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8529,7 +8515,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8558,7 +8544,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8587,7 +8573,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8616,7 +8602,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8645,7 +8631,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8674,7 +8660,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8703,7 +8689,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8732,7 +8718,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8761,7 +8747,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8790,7 +8776,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8819,7 +8805,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8848,7 +8834,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8877,7 +8863,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8906,7 +8892,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8935,7 +8921,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8964,7 +8950,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8993,7 +8979,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9022,7 +9008,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9051,7 +9037,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9080,7 +9066,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9109,7 +9095,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9138,7 +9124,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9167,7 +9153,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9196,7 +9182,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9225,7 +9211,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9254,7 +9240,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9283,7 +9269,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9312,7 +9298,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9341,7 +9327,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9370,7 +9356,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9399,7 +9385,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9428,7 +9414,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9457,7 +9443,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9486,7 +9472,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9515,7 +9501,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9544,7 +9530,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9573,7 +9559,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9602,7 +9588,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9631,7 +9617,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9660,7 +9646,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9689,7 +9675,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9718,7 +9704,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9747,7 +9733,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9776,7 +9762,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9805,7 +9791,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9834,7 +9820,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9863,7 +9849,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9892,7 +9878,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9921,7 +9907,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9950,7 +9936,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9979,7 +9965,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -10008,7 +9994,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10037,7 +10023,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10066,7 +10052,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10095,7 +10081,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10124,7 +10110,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10153,7 +10139,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10182,7 +10168,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10211,7 +10197,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10240,7 +10226,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10269,7 +10255,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10298,7 +10284,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10327,7 +10313,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10356,7 +10342,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10385,7 +10371,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10414,7 +10400,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10443,7 +10429,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10472,7 +10458,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10501,7 +10487,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10530,7 +10516,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10559,7 +10545,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10588,7 +10574,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10617,7 +10603,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10646,7 +10632,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10675,7 +10661,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10704,7 +10690,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10733,7 +10719,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10762,7 +10748,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10791,7 +10777,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10820,7 +10806,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10849,7 +10835,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10878,7 +10864,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10907,7 +10893,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10936,7 +10922,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10965,7 +10951,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10994,7 +10980,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -11023,7 +11009,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11052,7 +11038,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11081,7 +11067,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11110,7 +11096,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11139,7 +11125,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11168,7 +11154,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11197,7 +11183,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11226,7 +11212,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11255,7 +11241,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11284,7 +11270,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11313,7 +11299,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11342,7 +11328,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11371,7 +11357,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11400,7 +11386,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11429,7 +11415,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11458,7 +11444,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11487,7 +11473,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11516,7 +11502,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11545,7 +11531,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11574,7 +11560,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11603,7 +11589,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11632,7 +11618,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11661,7 +11647,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11690,7 +11676,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11719,7 +11705,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11748,7 +11734,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11777,7 +11763,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11806,7 +11792,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11835,7 +11821,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11864,7 +11850,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11893,7 +11879,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11922,7 +11908,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11951,7 +11937,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11980,7 +11966,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -12009,7 +11995,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12038,7 +12024,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12067,7 +12053,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12096,7 +12082,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12125,7 +12111,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12154,7 +12140,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12183,7 +12169,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12212,7 +12198,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12241,7 +12227,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12270,7 +12256,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12299,7 +12285,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12328,7 +12314,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12357,7 +12343,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12386,7 +12372,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12415,7 +12401,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12444,7 +12430,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12473,7 +12459,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12502,7 +12488,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12531,7 +12517,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12560,7 +12546,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12589,7 +12575,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12618,7 +12604,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12647,7 +12633,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12676,7 +12662,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12705,7 +12691,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12734,7 +12720,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12763,7 +12749,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12792,7 +12778,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12821,7 +12807,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12850,7 +12836,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12879,7 +12865,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12908,7 +12894,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12937,7 +12923,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12966,7 +12952,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12995,7 +12981,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13024,7 +13010,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13053,7 +13039,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13082,7 +13068,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13111,7 +13097,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13140,7 +13126,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13169,7 +13155,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13198,7 +13184,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13227,7 +13213,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13256,7 +13242,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13285,7 +13271,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13314,7 +13300,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13343,7 +13329,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13372,7 +13358,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13401,7 +13387,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13430,7 +13416,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13459,7 +13445,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13488,7 +13474,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13517,7 +13503,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13546,7 +13532,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13575,7 +13561,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13604,7 +13590,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13633,7 +13619,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13662,7 +13648,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13691,7 +13677,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13720,7 +13706,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13749,7 +13735,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13778,7 +13764,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13807,7 +13793,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13836,7 +13822,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13865,7 +13851,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13894,7 +13880,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13923,7 +13909,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13952,7 +13938,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13981,7 +13967,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -14010,7 +13996,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14039,7 +14025,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14068,7 +14054,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14097,7 +14083,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14126,7 +14112,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14155,7 +14141,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14184,7 +14170,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14213,7 +14199,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14242,7 +14228,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14271,7 +14257,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14300,7 +14286,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14329,7 +14315,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14358,7 +14344,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14387,7 +14373,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14416,7 +14402,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14445,7 +14431,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14474,7 +14460,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14503,7 +14489,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14532,7 +14518,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14561,7 +14547,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14590,7 +14576,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14619,7 +14605,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14648,7 +14634,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14677,7 +14663,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14706,7 +14692,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14735,7 +14721,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14764,7 +14750,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14793,7 +14779,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14822,7 +14808,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14851,7 +14837,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14880,7 +14866,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14909,7 +14895,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14938,7 +14924,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14967,7 +14953,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14996,7 +14982,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15025,7 +15011,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15054,7 +15040,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15083,7 +15069,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15112,7 +15098,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15141,7 +15127,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15170,7 +15156,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15199,7 +15185,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15228,7 +15214,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15257,7 +15243,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15286,7 +15272,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15315,7 +15301,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15344,7 +15330,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15373,7 +15359,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15402,7 +15388,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15431,7 +15417,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15460,7 +15446,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15489,7 +15475,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15518,7 +15504,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15547,7 +15533,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15576,7 +15562,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15605,7 +15591,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15634,7 +15620,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15663,7 +15649,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15692,7 +15678,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15721,7 +15707,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15750,7 +15736,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15779,7 +15765,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15808,7 +15794,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15837,7 +15823,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15866,7 +15852,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15895,7 +15881,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15924,7 +15910,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15953,7 +15939,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15982,7 +15968,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -16011,7 +15997,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16040,7 +16026,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16069,7 +16055,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16098,7 +16084,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16127,7 +16113,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16156,7 +16142,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16185,7 +16171,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16214,7 +16200,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16243,7 +16229,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16272,7 +16258,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16301,7 +16287,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16330,7 +16316,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16359,7 +16345,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16388,7 +16374,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16417,7 +16403,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16446,7 +16432,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16475,7 +16461,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16504,7 +16490,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16533,7 +16519,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16562,7 +16548,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16591,7 +16577,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16620,7 +16606,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16649,7 +16635,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16678,7 +16664,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16707,7 +16693,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16736,7 +16722,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16765,7 +16751,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16794,7 +16780,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16823,7 +16809,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16852,7 +16838,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16881,7 +16867,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16910,7 +16896,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16939,7 +16925,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16968,7 +16954,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16997,7 +16983,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17026,7 +17012,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17055,7 +17041,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17084,7 +17070,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17113,7 +17099,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17142,7 +17128,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17171,7 +17157,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17200,7 +17186,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17229,7 +17215,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17258,7 +17244,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17287,7 +17273,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17316,7 +17302,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17345,7 +17331,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17374,7 +17360,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17403,7 +17389,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17432,7 +17418,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17461,7 +17447,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17490,7 +17476,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17519,7 +17505,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17548,7 +17534,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17577,7 +17563,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17606,7 +17592,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17635,7 +17621,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17664,7 +17650,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17693,7 +17679,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17722,7 +17708,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17751,7 +17737,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17780,7 +17766,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17809,7 +17795,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17838,7 +17824,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17867,7 +17853,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17896,7 +17882,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17925,7 +17911,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17954,7 +17940,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17983,7 +17969,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -18012,7 +17998,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -18041,7 +18027,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -18070,7 +18056,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -18099,7 +18085,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -18128,7 +18114,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -18157,7 +18143,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -18186,7 +18172,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -18215,7 +18201,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -18244,7 +18230,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -18273,7 +18259,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -18302,7 +18288,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -18331,7 +18317,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -18360,7 +18346,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18389,7 +18375,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18418,7 +18404,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18447,7 +18433,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18476,7 +18462,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18505,7 +18491,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18534,7 +18520,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18563,7 +18549,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18592,7 +18578,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18621,7 +18607,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18650,7 +18636,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18679,7 +18665,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18708,7 +18694,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18737,7 +18723,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18766,7 +18752,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18795,7 +18781,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18824,7 +18810,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18853,7 +18839,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18882,7 +18868,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18911,7 +18897,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18940,7 +18926,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18969,7 +18955,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18998,7 +18984,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -19027,7 +19013,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -19056,7 +19042,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -19085,7 +19071,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -19114,7 +19100,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -19143,7 +19129,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -19172,7 +19158,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -19201,7 +19187,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -19230,7 +19216,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -19259,7 +19245,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -19288,7 +19274,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -19317,7 +19303,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -19346,7 +19332,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -19375,7 +19361,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -19404,7 +19390,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19433,7 +19419,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19462,7 +19448,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19491,7 +19477,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19520,7 +19506,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19549,7 +19535,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19578,7 +19564,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19607,7 +19593,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19636,7 +19622,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19665,7 +19651,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19694,7 +19680,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19723,7 +19709,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19752,7 +19738,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19781,7 +19767,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19810,7 +19796,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19839,7 +19825,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19868,7 +19854,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19897,7 +19883,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19926,7 +19912,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19955,7 +19941,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19984,7 +19970,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -20013,7 +19999,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20042,7 +20028,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20071,7 +20057,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20100,7 +20086,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20129,7 +20115,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20158,7 +20144,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20187,7 +20173,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20216,7 +20202,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20245,7 +20231,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20274,7 +20260,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -20303,7 +20289,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -20332,7 +20318,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -20361,7 +20347,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -20390,7 +20376,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -20419,7 +20405,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -20448,7 +20434,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20477,7 +20463,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20506,7 +20492,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20535,7 +20521,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20564,7 +20550,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20593,7 +20579,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20622,7 +20608,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20651,7 +20637,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20680,7 +20666,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20709,7 +20695,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20738,7 +20724,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20767,7 +20753,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20796,7 +20782,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20825,7 +20811,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20854,7 +20840,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20883,7 +20869,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20912,7 +20898,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20941,7 +20927,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20970,7 +20956,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20999,7 +20985,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -21028,7 +21014,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -21057,7 +21043,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -21086,7 +21072,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -21115,7 +21101,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -21144,7 +21130,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -21173,7 +21159,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -21202,7 +21188,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -21231,7 +21217,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -21260,7 +21246,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -21289,7 +21275,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -21318,7 +21304,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -21347,7 +21333,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -21376,7 +21362,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -21405,7 +21391,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -21434,7 +21420,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -21463,7 +21449,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21492,7 +21478,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21521,7 +21507,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21550,7 +21536,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21579,7 +21565,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21608,7 +21594,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21637,7 +21623,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21666,7 +21652,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21695,7 +21681,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21724,7 +21710,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21753,7 +21739,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21782,7 +21768,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21811,7 +21797,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21840,7 +21826,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21869,7 +21855,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21898,7 +21884,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21927,7 +21913,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21956,7 +21942,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21985,7 +21971,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -22014,7 +22000,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -22043,7 +22029,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -22072,7 +22058,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -22101,7 +22087,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -22130,7 +22116,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -22159,7 +22145,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -22188,7 +22174,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -22217,7 +22203,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -22246,7 +22232,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -22275,7 +22261,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -22304,7 +22290,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -22333,7 +22319,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -22362,7 +22348,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -22391,7 +22377,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -22420,7 +22406,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -22449,7 +22435,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -22478,7 +22464,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -22507,7 +22493,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22536,7 +22522,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22565,7 +22551,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22594,7 +22580,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22623,7 +22609,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22652,7 +22638,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22681,7 +22667,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22710,7 +22696,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22739,7 +22725,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22768,7 +22754,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22797,7 +22783,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22826,7 +22812,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22855,7 +22841,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22884,7 +22870,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22913,7 +22899,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22942,7 +22928,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22971,7 +22957,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -23000,7 +22986,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -23029,7 +23015,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -23058,7 +23044,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -23087,7 +23073,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -23116,7 +23102,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -23145,7 +23131,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -23174,7 +23160,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -23203,7 +23189,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -23232,7 +23218,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -23261,7 +23247,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -23290,7 +23276,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -23319,7 +23305,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -23348,7 +23334,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -23377,7 +23363,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -23406,7 +23392,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -23435,7 +23421,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -23464,7 +23450,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -23493,7 +23479,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -23522,7 +23508,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -23551,7 +23537,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23580,7 +23566,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23609,7 +23595,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23638,7 +23624,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23667,7 +23653,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23696,7 +23682,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23725,7 +23711,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23754,7 +23740,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23783,7 +23769,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23812,7 +23798,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23841,7 +23827,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23870,7 +23856,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23899,7 +23885,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23928,7 +23914,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23957,7 +23943,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23986,7 +23972,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -24015,7 +24001,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -24044,7 +24030,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -24073,7 +24059,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -24102,7 +24088,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -24131,7 +24117,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -24160,7 +24146,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -24189,7 +24175,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -24218,7 +24204,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -24247,7 +24233,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -24276,7 +24262,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -24305,7 +24291,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -24334,7 +24320,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -24363,7 +24349,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -24392,7 +24378,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -24421,7 +24407,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -24450,7 +24436,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -24479,7 +24465,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -24508,7 +24494,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -24537,7 +24523,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -24566,7 +24552,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -24595,7 +24581,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24624,7 +24610,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24653,7 +24639,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24682,7 +24668,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24711,7 +24697,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24740,7 +24726,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24769,7 +24755,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24798,7 +24784,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24827,7 +24813,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24856,7 +24842,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24885,7 +24871,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24914,7 +24900,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24943,7 +24929,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24972,7 +24958,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -25001,7 +24987,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -25030,7 +25016,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -25059,7 +25045,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -25088,7 +25074,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -25117,7 +25103,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -25146,7 +25132,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -25175,7 +25161,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -25204,7 +25190,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -25233,7 +25219,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -25262,7 +25248,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -25291,7 +25277,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -25320,7 +25306,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -25349,7 +25335,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -25378,7 +25364,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -25407,7 +25393,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -25436,7 +25422,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -25465,7 +25451,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -25494,7 +25480,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -25523,7 +25509,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -25552,7 +25538,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -25581,7 +25567,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -25610,7 +25596,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25639,7 +25625,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25668,7 +25654,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25697,7 +25683,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25726,7 +25712,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25755,7 +25741,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25784,7 +25770,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25813,7 +25799,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25842,7 +25828,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25871,7 +25857,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25900,7 +25886,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25929,7 +25915,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25958,7 +25944,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25987,7 +25973,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -26016,7 +26002,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -26045,7 +26031,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -26074,7 +26060,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -26103,7 +26089,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -26132,7 +26118,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -26161,7 +26147,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -26190,7 +26176,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -26219,7 +26205,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -26248,7 +26234,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -26277,7 +26263,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -26306,7 +26292,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -26335,7 +26321,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -26364,7 +26350,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -26393,7 +26379,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -26422,7 +26408,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -26451,7 +26437,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -26480,7 +26466,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -26509,7 +26495,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -26538,7 +26524,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -26567,7 +26553,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -26596,7 +26582,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -26625,7 +26611,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -26654,7 +26640,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26683,7 +26669,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26712,7 +26698,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26741,7 +26727,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26770,7 +26756,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26799,7 +26785,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26828,7 +26814,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26857,7 +26843,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26886,7 +26872,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26915,7 +26901,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26944,7 +26930,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26973,7 +26959,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -27002,7 +26988,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -27031,7 +27017,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -27060,7 +27046,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -27089,7 +27075,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -27118,7 +27104,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -27147,7 +27133,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -27176,7 +27162,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -27205,7 +27191,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -27234,7 +27220,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -27263,7 +27249,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -27292,7 +27278,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -27321,7 +27307,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -27350,7 +27336,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -27379,7 +27365,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -27408,7 +27394,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -27437,7 +27423,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -27466,7 +27452,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -27495,7 +27481,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -27524,7 +27510,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -27553,7 +27539,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -27582,7 +27568,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -27611,7 +27597,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -27640,7 +27626,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -27669,7 +27655,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -27698,7 +27684,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27727,7 +27713,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27756,7 +27742,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27785,7 +27771,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27814,7 +27800,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27843,7 +27829,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27872,7 +27858,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27901,7 +27887,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27930,7 +27916,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27959,7 +27945,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27988,7 +27974,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -28017,7 +28003,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -28046,7 +28032,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -28075,7 +28061,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -28104,7 +28090,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -28133,7 +28119,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -28162,7 +28148,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -28191,7 +28177,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -28220,7 +28206,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -28249,7 +28235,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -28278,7 +28264,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -28307,7 +28293,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -28336,7 +28322,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -28365,7 +28351,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -28394,7 +28380,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -28423,7 +28409,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -28452,7 +28438,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -28481,7 +28467,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -28510,7 +28496,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -28539,7 +28525,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -28568,7 +28554,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -28597,7 +28583,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -28626,7 +28612,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -28655,7 +28641,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -28684,7 +28670,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -28713,7 +28699,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28742,7 +28728,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28771,7 +28757,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28800,7 +28786,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28829,7 +28815,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28858,7 +28844,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28887,7 +28873,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28916,7 +28902,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28945,7 +28931,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28974,7 +28960,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -29003,7 +28989,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -29032,7 +29018,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -29061,7 +29047,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -29090,7 +29076,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -29119,7 +29105,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -29148,7 +29134,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -29177,7 +29163,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -29206,7 +29192,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -29235,7 +29221,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -29264,7 +29250,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -29293,7 +29279,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -29322,7 +29308,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -29351,7 +29337,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -29380,7 +29366,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -29409,7 +29395,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -29438,7 +29424,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -29467,7 +29453,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -29496,7 +29482,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -29525,7 +29511,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -29554,7 +29540,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -29583,7 +29569,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -29612,7 +29598,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -29641,7 +29627,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -29670,7 +29656,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -29699,7 +29685,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -29728,7 +29714,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -29757,7 +29743,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29786,7 +29772,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29815,7 +29801,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29844,7 +29830,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29873,7 +29859,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29902,7 +29888,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29931,7 +29917,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29960,7 +29946,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29989,7 +29975,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -30018,7 +30004,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -30047,7 +30033,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -30076,7 +30062,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -30105,7 +30091,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -30134,7 +30120,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -30163,7 +30149,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -30192,7 +30178,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -30221,7 +30207,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -30250,7 +30236,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Farm-Squire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC175F-9E04-471D-80FA-B15907A5C2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4ED6A0-EAA2-49F5-9955-9798DB915898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_input" sheetId="1" r:id="rId1"/>
@@ -279,9 +279,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -354,34 +354,34 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,17 +603,17 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="27" width="13.265625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="27" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>25</v>
       </c>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>28</v>
       </c>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>30</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>33</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>34</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>54</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>55</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>56</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>57</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>58</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>38</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>59</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>43</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>78.239999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>44</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>45</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>47</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>51</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>52</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2551,7 +2551,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2579,7 +2579,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2607,7 +2607,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2634,7 +2634,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2661,7 +2661,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2688,7 +2688,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2715,7 +2715,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2744,7 +2744,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2773,7 +2773,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2802,7 +2802,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2831,7 +2831,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2860,7 +2860,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2889,7 +2889,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2918,7 +2918,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2947,7 +2947,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2976,7 +2976,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3005,7 +3005,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3034,7 +3034,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3063,7 +3063,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3092,7 +3092,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3121,7 +3121,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3150,7 +3150,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3179,7 +3179,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3208,7 +3208,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3237,7 +3237,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3266,7 +3266,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3295,7 +3295,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3324,7 +3324,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3353,7 +3353,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3382,7 +3382,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3411,7 +3411,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3440,7 +3440,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3469,7 +3469,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3498,7 +3498,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3527,7 +3527,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3556,7 +3556,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3585,7 +3585,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3614,7 +3614,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3643,7 +3643,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3672,7 +3672,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3701,7 +3701,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3730,7 +3730,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3759,7 +3759,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3788,7 +3788,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3817,7 +3817,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3846,7 +3846,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3875,7 +3875,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3904,7 +3904,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3933,7 +3933,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3962,7 +3962,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3991,7 +3991,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4020,7 +4020,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4049,7 +4049,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4078,7 +4078,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4107,7 +4107,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4136,7 +4136,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4165,7 +4165,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4194,7 +4194,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4223,7 +4223,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4252,7 +4252,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4281,7 +4281,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4310,7 +4310,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4339,7 +4339,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4368,7 +4368,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4397,7 +4397,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4426,7 +4426,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4455,7 +4455,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4484,7 +4484,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4513,7 +4513,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4542,7 +4542,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4571,7 +4571,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4600,7 +4600,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4629,7 +4629,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4658,7 +4658,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4687,7 +4687,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4716,7 +4716,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4745,7 +4745,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4774,7 +4774,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4803,7 +4803,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4832,7 +4832,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4861,7 +4861,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4890,7 +4890,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4919,7 +4919,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4948,7 +4948,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4977,7 +4977,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5006,7 +5006,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5035,7 +5035,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5064,7 +5064,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5093,7 +5093,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5122,7 +5122,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5151,7 +5151,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5180,7 +5180,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5209,7 +5209,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5238,7 +5238,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5267,7 +5267,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5296,7 +5296,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5325,7 +5325,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5354,7 +5354,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5383,7 +5383,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5412,7 +5412,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5441,7 +5441,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5470,7 +5470,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5499,7 +5499,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5528,7 +5528,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5557,7 +5557,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5586,7 +5586,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5615,7 +5615,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5644,7 +5644,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5673,7 +5673,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5702,7 +5702,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5731,7 +5731,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5760,7 +5760,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5789,7 +5789,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5818,7 +5818,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5847,7 +5847,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5876,7 +5876,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5905,7 +5905,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5934,7 +5934,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5963,7 +5963,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5992,7 +5992,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6021,7 +6021,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6050,7 +6050,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6079,7 +6079,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6108,7 +6108,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6137,7 +6137,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6166,7 +6166,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6195,7 +6195,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6224,7 +6224,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6253,7 +6253,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6282,7 +6282,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6311,7 +6311,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6340,7 +6340,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6369,7 +6369,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6398,7 +6398,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6427,7 +6427,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6456,7 +6456,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6485,7 +6485,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6514,7 +6514,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6543,7 +6543,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6572,7 +6572,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6601,7 +6601,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6630,7 +6630,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6659,7 +6659,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6688,7 +6688,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6717,7 +6717,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6746,7 +6746,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6775,7 +6775,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6804,7 +6804,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6833,7 +6833,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6862,7 +6862,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6891,7 +6891,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6920,7 +6920,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6949,7 +6949,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6978,7 +6978,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7007,7 +7007,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7036,7 +7036,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7065,7 +7065,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7094,7 +7094,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7123,7 +7123,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7152,7 +7152,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7181,7 +7181,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7210,7 +7210,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7239,7 +7239,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7268,7 +7268,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7297,7 +7297,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7326,7 +7326,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7355,7 +7355,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7384,7 +7384,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7413,7 +7413,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7442,7 +7442,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7471,7 +7471,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7500,7 +7500,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7529,7 +7529,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7558,7 +7558,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7587,7 +7587,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7616,7 +7616,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7645,7 +7645,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7674,7 +7674,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7703,7 +7703,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7732,7 +7732,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7761,7 +7761,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7790,7 +7790,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7819,7 +7819,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7848,7 +7848,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7877,7 +7877,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7906,7 +7906,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7935,7 +7935,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7964,7 +7964,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7993,7 +7993,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -8022,7 +8022,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -8051,7 +8051,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -8080,7 +8080,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -8109,7 +8109,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -8138,7 +8138,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -8167,7 +8167,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8196,7 +8196,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8225,7 +8225,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8254,7 +8254,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8283,7 +8283,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8312,7 +8312,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8341,7 +8341,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8370,7 +8370,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8399,7 +8399,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8428,7 +8428,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8457,7 +8457,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8486,7 +8486,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8515,7 +8515,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8544,7 +8544,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8573,7 +8573,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8602,7 +8602,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8631,7 +8631,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8660,7 +8660,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8689,7 +8689,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8718,7 +8718,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8747,7 +8747,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8776,7 +8776,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8805,7 +8805,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8834,7 +8834,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8863,7 +8863,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8892,7 +8892,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8921,7 +8921,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8950,7 +8950,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8979,7 +8979,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -9008,7 +9008,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -9037,7 +9037,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -9066,7 +9066,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -9095,7 +9095,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -9124,7 +9124,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -9153,7 +9153,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9182,7 +9182,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9211,7 +9211,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9240,7 +9240,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9269,7 +9269,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9298,7 +9298,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9327,7 +9327,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9356,7 +9356,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9385,7 +9385,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -9414,7 +9414,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -9443,7 +9443,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -9472,7 +9472,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -9501,7 +9501,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -9530,7 +9530,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -9559,7 +9559,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -9588,7 +9588,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -9617,7 +9617,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -9646,7 +9646,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -9675,7 +9675,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -9704,7 +9704,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -9733,7 +9733,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -9762,7 +9762,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -9791,7 +9791,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -9820,7 +9820,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -9849,7 +9849,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -9878,7 +9878,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -9907,7 +9907,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -9936,7 +9936,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -9965,7 +9965,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -9994,7 +9994,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -10023,7 +10023,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -10052,7 +10052,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -10081,7 +10081,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -10110,7 +10110,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -10139,7 +10139,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -10168,7 +10168,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -10197,7 +10197,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -10226,7 +10226,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -10255,7 +10255,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -10284,7 +10284,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -10313,7 +10313,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -10342,7 +10342,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -10371,7 +10371,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -10400,7 +10400,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -10429,7 +10429,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -10458,7 +10458,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -10487,7 +10487,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -10516,7 +10516,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -10545,7 +10545,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -10574,7 +10574,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -10603,7 +10603,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -10632,7 +10632,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -10661,7 +10661,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -10690,7 +10690,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -10719,7 +10719,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -10748,7 +10748,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -10777,7 +10777,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -10806,7 +10806,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -10835,7 +10835,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -10864,7 +10864,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -10893,7 +10893,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -10922,7 +10922,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -10951,7 +10951,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -10980,7 +10980,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -11009,7 +11009,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -11038,7 +11038,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -11067,7 +11067,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -11096,7 +11096,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -11125,7 +11125,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -11154,7 +11154,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -11183,7 +11183,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -11212,7 +11212,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -11241,7 +11241,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -11270,7 +11270,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -11299,7 +11299,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -11328,7 +11328,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -11357,7 +11357,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -11386,7 +11386,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -11415,7 +11415,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -11444,7 +11444,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -11473,7 +11473,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -11502,7 +11502,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -11531,7 +11531,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -11560,7 +11560,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -11589,7 +11589,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -11618,7 +11618,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -11647,7 +11647,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -11676,7 +11676,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -11705,7 +11705,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -11734,7 +11734,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -11763,7 +11763,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -11792,7 +11792,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -11821,7 +11821,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -11850,7 +11850,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -11879,7 +11879,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -11908,7 +11908,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -11937,7 +11937,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -11966,7 +11966,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -11995,7 +11995,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -12024,7 +12024,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -12053,7 +12053,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -12082,7 +12082,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -12111,7 +12111,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -12140,7 +12140,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -12169,7 +12169,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -12198,7 +12198,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -12227,7 +12227,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -12256,7 +12256,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -12285,7 +12285,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -12314,7 +12314,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -12343,7 +12343,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -12372,7 +12372,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -12401,7 +12401,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -12430,7 +12430,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -12459,7 +12459,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -12488,7 +12488,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -12517,7 +12517,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -12546,7 +12546,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -12575,7 +12575,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -12604,7 +12604,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -12633,7 +12633,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -12662,7 +12662,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -12691,7 +12691,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -12720,7 +12720,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -12749,7 +12749,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -12778,7 +12778,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -12807,7 +12807,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -12836,7 +12836,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -12865,7 +12865,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -12894,7 +12894,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -12923,7 +12923,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -12952,7 +12952,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -12981,7 +12981,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -13010,7 +13010,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -13039,7 +13039,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -13068,7 +13068,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -13097,7 +13097,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -13126,7 +13126,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -13155,7 +13155,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -13184,7 +13184,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -13213,7 +13213,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -13242,7 +13242,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -13271,7 +13271,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -13300,7 +13300,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -13329,7 +13329,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -13358,7 +13358,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -13387,7 +13387,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -13416,7 +13416,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -13445,7 +13445,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -13474,7 +13474,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -13503,7 +13503,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -13532,7 +13532,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -13561,7 +13561,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -13590,7 +13590,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -13619,7 +13619,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -13648,7 +13648,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -13677,7 +13677,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -13706,7 +13706,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -13735,7 +13735,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -13764,7 +13764,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -13793,7 +13793,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -13822,7 +13822,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -13851,7 +13851,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -13880,7 +13880,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -13909,7 +13909,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -13938,7 +13938,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -13967,7 +13967,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -13996,7 +13996,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -14025,7 +14025,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -14054,7 +14054,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -14083,7 +14083,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -14112,7 +14112,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -14141,7 +14141,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -14170,7 +14170,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -14199,7 +14199,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -14228,7 +14228,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -14257,7 +14257,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -14286,7 +14286,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -14315,7 +14315,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -14344,7 +14344,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -14373,7 +14373,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -14402,7 +14402,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -14431,7 +14431,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -14460,7 +14460,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -14489,7 +14489,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -14518,7 +14518,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -14547,7 +14547,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -14576,7 +14576,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -14605,7 +14605,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -14634,7 +14634,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -14663,7 +14663,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -14692,7 +14692,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -14721,7 +14721,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -14750,7 +14750,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -14779,7 +14779,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -14808,7 +14808,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -14837,7 +14837,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -14866,7 +14866,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -14895,7 +14895,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -14924,7 +14924,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -14953,7 +14953,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -14982,7 +14982,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -15011,7 +15011,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -15040,7 +15040,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -15069,7 +15069,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -15098,7 +15098,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -15127,7 +15127,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -15156,7 +15156,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -15185,7 +15185,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -15214,7 +15214,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -15243,7 +15243,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -15272,7 +15272,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -15301,7 +15301,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -15330,7 +15330,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -15359,7 +15359,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -15388,7 +15388,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -15417,7 +15417,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -15446,7 +15446,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -15475,7 +15475,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -15504,7 +15504,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -15533,7 +15533,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -15562,7 +15562,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -15591,7 +15591,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -15620,7 +15620,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -15649,7 +15649,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -15678,7 +15678,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -15707,7 +15707,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -15736,7 +15736,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -15765,7 +15765,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -15794,7 +15794,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -15823,7 +15823,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -15852,7 +15852,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -15881,7 +15881,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -15910,7 +15910,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -15939,7 +15939,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -15968,7 +15968,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -15997,7 +15997,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -16026,7 +16026,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -16055,7 +16055,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -16084,7 +16084,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -16113,7 +16113,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -16142,7 +16142,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -16171,7 +16171,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -16200,7 +16200,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -16229,7 +16229,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -16258,7 +16258,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -16287,7 +16287,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -16316,7 +16316,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -16345,7 +16345,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -16374,7 +16374,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -16403,7 +16403,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -16432,7 +16432,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -16461,7 +16461,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -16490,7 +16490,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -16519,7 +16519,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -16548,7 +16548,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -16577,7 +16577,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -16606,7 +16606,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -16635,7 +16635,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -16664,7 +16664,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -16693,7 +16693,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -16722,7 +16722,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -16751,7 +16751,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -16780,7 +16780,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -16809,7 +16809,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -16838,7 +16838,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -16867,7 +16867,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -16896,7 +16896,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -16925,7 +16925,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -16954,7 +16954,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -16983,7 +16983,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -17012,7 +17012,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -17041,7 +17041,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -17070,7 +17070,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -17099,7 +17099,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -17128,7 +17128,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -17157,7 +17157,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -17186,7 +17186,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -17215,7 +17215,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -17244,7 +17244,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -17273,7 +17273,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -17302,7 +17302,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -17331,7 +17331,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -17360,7 +17360,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -17389,7 +17389,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -17418,7 +17418,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -17447,7 +17447,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -17476,7 +17476,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -17505,7 +17505,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -17534,7 +17534,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -17563,7 +17563,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -17592,7 +17592,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -17621,7 +17621,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -17650,7 +17650,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -17679,7 +17679,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -17708,7 +17708,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -17737,7 +17737,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -17766,7 +17766,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -17795,7 +17795,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -17824,7 +17824,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -17853,7 +17853,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -17882,7 +17882,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -17911,7 +17911,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -17940,7 +17940,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -17969,7 +17969,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -17998,7 +17998,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -18027,7 +18027,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -18056,7 +18056,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -18085,7 +18085,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -18114,7 +18114,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -18143,7 +18143,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -18172,7 +18172,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -18201,7 +18201,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -18230,7 +18230,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -18259,7 +18259,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -18288,7 +18288,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -18317,7 +18317,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -18346,7 +18346,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -18375,7 +18375,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -18404,7 +18404,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -18433,7 +18433,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -18462,7 +18462,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -18491,7 +18491,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -18520,7 +18520,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -18549,7 +18549,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -18578,7 +18578,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -18607,7 +18607,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -18636,7 +18636,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -18665,7 +18665,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -18694,7 +18694,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -18723,7 +18723,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -18752,7 +18752,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -18781,7 +18781,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -18810,7 +18810,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -18839,7 +18839,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -18868,7 +18868,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -18897,7 +18897,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -18926,7 +18926,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -18955,7 +18955,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -18984,7 +18984,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -19013,7 +19013,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -19042,7 +19042,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -19071,7 +19071,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -19100,7 +19100,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -19129,7 +19129,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -19158,7 +19158,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -19187,7 +19187,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -19216,7 +19216,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -19245,7 +19245,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -19274,7 +19274,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -19303,7 +19303,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -19332,7 +19332,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -19361,7 +19361,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -19390,7 +19390,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -19419,7 +19419,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -19448,7 +19448,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -19477,7 +19477,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -19506,7 +19506,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -19535,7 +19535,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -19564,7 +19564,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -19593,7 +19593,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -19622,7 +19622,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -19651,7 +19651,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -19680,7 +19680,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -19709,7 +19709,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -19738,7 +19738,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -19767,7 +19767,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -19796,7 +19796,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -19825,7 +19825,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -19854,7 +19854,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -19883,7 +19883,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -19912,7 +19912,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -19941,7 +19941,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -19970,7 +19970,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -19999,7 +19999,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -20028,7 +20028,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -20057,7 +20057,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -20086,7 +20086,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -20115,7 +20115,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -20144,7 +20144,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -20173,7 +20173,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -20202,7 +20202,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -20231,7 +20231,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -20260,7 +20260,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -20289,7 +20289,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -20318,7 +20318,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -20347,7 +20347,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -20376,7 +20376,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -20405,7 +20405,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -20434,7 +20434,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -20463,7 +20463,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -20492,7 +20492,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -20521,7 +20521,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -20550,7 +20550,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -20579,7 +20579,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -20608,7 +20608,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -20637,7 +20637,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -20666,7 +20666,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -20695,7 +20695,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -20724,7 +20724,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -20753,7 +20753,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -20782,7 +20782,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -20811,7 +20811,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -20840,7 +20840,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -20869,7 +20869,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -20898,7 +20898,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -20927,7 +20927,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -20956,7 +20956,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -20985,7 +20985,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -21014,7 +21014,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -21043,7 +21043,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -21072,7 +21072,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -21101,7 +21101,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -21130,7 +21130,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -21159,7 +21159,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -21188,7 +21188,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -21217,7 +21217,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -21246,7 +21246,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -21275,7 +21275,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -21304,7 +21304,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -21333,7 +21333,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -21362,7 +21362,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -21391,7 +21391,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -21420,7 +21420,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -21449,7 +21449,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -21478,7 +21478,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -21507,7 +21507,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -21536,7 +21536,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -21565,7 +21565,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -21594,7 +21594,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -21623,7 +21623,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -21652,7 +21652,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -21681,7 +21681,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -21710,7 +21710,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -21739,7 +21739,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -21768,7 +21768,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -21797,7 +21797,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -21826,7 +21826,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -21855,7 +21855,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -21884,7 +21884,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -21913,7 +21913,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -21942,7 +21942,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -21971,7 +21971,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -22000,7 +22000,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -22029,7 +22029,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -22058,7 +22058,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -22087,7 +22087,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -22116,7 +22116,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -22145,7 +22145,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -22174,7 +22174,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -22203,7 +22203,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -22232,7 +22232,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -22261,7 +22261,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -22290,7 +22290,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -22319,7 +22319,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -22348,7 +22348,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -22377,7 +22377,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -22406,7 +22406,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -22435,7 +22435,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -22464,7 +22464,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -22493,7 +22493,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -22522,7 +22522,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -22551,7 +22551,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -22580,7 +22580,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -22609,7 +22609,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -22638,7 +22638,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -22667,7 +22667,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -22696,7 +22696,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -22725,7 +22725,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -22754,7 +22754,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -22783,7 +22783,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -22812,7 +22812,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -22841,7 +22841,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -22870,7 +22870,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -22899,7 +22899,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -22928,7 +22928,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -22957,7 +22957,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -22986,7 +22986,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -23015,7 +23015,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -23044,7 +23044,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -23073,7 +23073,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -23102,7 +23102,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -23131,7 +23131,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -23160,7 +23160,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -23189,7 +23189,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -23218,7 +23218,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -23247,7 +23247,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -23276,7 +23276,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -23305,7 +23305,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -23334,7 +23334,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -23363,7 +23363,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -23392,7 +23392,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -23421,7 +23421,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -23450,7 +23450,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -23479,7 +23479,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -23508,7 +23508,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -23537,7 +23537,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -23566,7 +23566,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -23595,7 +23595,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -23624,7 +23624,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -23653,7 +23653,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -23682,7 +23682,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -23711,7 +23711,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -23740,7 +23740,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -23769,7 +23769,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -23798,7 +23798,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -23827,7 +23827,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -23856,7 +23856,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -23885,7 +23885,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -23914,7 +23914,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -23943,7 +23943,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -23972,7 +23972,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -24001,7 +24001,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -24030,7 +24030,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -24059,7 +24059,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -24088,7 +24088,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -24117,7 +24117,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -24146,7 +24146,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -24175,7 +24175,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -24204,7 +24204,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -24233,7 +24233,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -24262,7 +24262,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -24291,7 +24291,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -24320,7 +24320,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -24349,7 +24349,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -24378,7 +24378,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -24407,7 +24407,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -24436,7 +24436,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -24465,7 +24465,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -24494,7 +24494,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -24523,7 +24523,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -24552,7 +24552,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -24581,7 +24581,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -24610,7 +24610,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -24639,7 +24639,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -24668,7 +24668,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -24697,7 +24697,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -24726,7 +24726,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -24755,7 +24755,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -24784,7 +24784,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -24813,7 +24813,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -24842,7 +24842,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -24871,7 +24871,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -24900,7 +24900,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -24929,7 +24929,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -24958,7 +24958,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -24987,7 +24987,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -25016,7 +25016,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -25045,7 +25045,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -25074,7 +25074,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -25103,7 +25103,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -25132,7 +25132,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -25161,7 +25161,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -25190,7 +25190,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -25219,7 +25219,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -25248,7 +25248,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -25277,7 +25277,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -25306,7 +25306,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -25335,7 +25335,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -25364,7 +25364,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -25393,7 +25393,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -25422,7 +25422,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -25451,7 +25451,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -25480,7 +25480,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -25509,7 +25509,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -25538,7 +25538,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -25567,7 +25567,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -25596,7 +25596,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -25625,7 +25625,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -25654,7 +25654,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -25683,7 +25683,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -25712,7 +25712,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -25741,7 +25741,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -25770,7 +25770,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -25799,7 +25799,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -25828,7 +25828,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -25857,7 +25857,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -25886,7 +25886,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -25915,7 +25915,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -25944,7 +25944,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -25973,7 +25973,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -26002,7 +26002,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -26031,7 +26031,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -26060,7 +26060,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -26089,7 +26089,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -26118,7 +26118,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -26147,7 +26147,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -26176,7 +26176,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -26205,7 +26205,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -26234,7 +26234,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -26263,7 +26263,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -26292,7 +26292,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -26321,7 +26321,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -26350,7 +26350,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -26379,7 +26379,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -26408,7 +26408,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -26437,7 +26437,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -26466,7 +26466,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -26495,7 +26495,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -26524,7 +26524,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -26553,7 +26553,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -26582,7 +26582,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -26611,7 +26611,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -26640,7 +26640,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -26669,7 +26669,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -26698,7 +26698,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -26727,7 +26727,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -26756,7 +26756,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -26785,7 +26785,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -26814,7 +26814,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -26843,7 +26843,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -26872,7 +26872,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -26901,7 +26901,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -26930,7 +26930,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -26959,7 +26959,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -26988,7 +26988,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -27017,7 +27017,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -27046,7 +27046,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -27075,7 +27075,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -27104,7 +27104,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -27133,7 +27133,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -27162,7 +27162,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -27191,7 +27191,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -27220,7 +27220,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -27249,7 +27249,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -27278,7 +27278,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -27307,7 +27307,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -27336,7 +27336,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -27365,7 +27365,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -27394,7 +27394,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -27423,7 +27423,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -27452,7 +27452,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -27481,7 +27481,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -27510,7 +27510,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -27539,7 +27539,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -27568,7 +27568,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -27597,7 +27597,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -27626,7 +27626,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -27655,7 +27655,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -27684,7 +27684,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -27713,7 +27713,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -27742,7 +27742,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -27771,7 +27771,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -27800,7 +27800,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -27829,7 +27829,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -27858,7 +27858,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -27887,7 +27887,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -27916,7 +27916,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -27945,7 +27945,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -27974,7 +27974,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -28003,7 +28003,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -28032,7 +28032,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -28061,7 +28061,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -28090,7 +28090,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -28119,7 +28119,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -28148,7 +28148,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -28177,7 +28177,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -28206,7 +28206,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -28235,7 +28235,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -28264,7 +28264,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -28293,7 +28293,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -28322,7 +28322,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -28351,7 +28351,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -28380,7 +28380,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -28409,7 +28409,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -28438,7 +28438,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -28467,7 +28467,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -28496,7 +28496,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -28525,7 +28525,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -28554,7 +28554,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -28583,7 +28583,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -28612,7 +28612,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -28641,7 +28641,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -28670,7 +28670,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -28699,7 +28699,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -28728,7 +28728,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -28757,7 +28757,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -28786,7 +28786,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -28815,7 +28815,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -28844,7 +28844,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -28873,7 +28873,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -28902,7 +28902,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -28931,7 +28931,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -28960,7 +28960,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -28989,7 +28989,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -29018,7 +29018,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -29047,7 +29047,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -29076,7 +29076,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -29105,7 +29105,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -29134,7 +29134,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -29163,7 +29163,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -29192,7 +29192,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -29221,7 +29221,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -29250,7 +29250,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -29279,7 +29279,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -29308,7 +29308,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -29337,7 +29337,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -29366,7 +29366,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -29395,7 +29395,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -29424,7 +29424,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -29453,7 +29453,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -29482,7 +29482,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -29511,7 +29511,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -29540,7 +29540,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -29569,7 +29569,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -29598,7 +29598,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -29627,7 +29627,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -29656,7 +29656,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -29685,7 +29685,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -29714,7 +29714,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -29743,7 +29743,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -29772,7 +29772,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -29801,7 +29801,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -29830,7 +29830,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -29859,7 +29859,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -29888,7 +29888,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -29917,7 +29917,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -29946,7 +29946,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -29975,7 +29975,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -30004,7 +30004,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -30033,7 +30033,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -30062,7 +30062,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -30091,7 +30091,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -30120,7 +30120,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -30149,7 +30149,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -30178,7 +30178,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -30207,7 +30207,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -30236,7 +30236,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4ED6A0-EAA2-49F5-9955-9798DB915898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3367AAE9-2CB4-419E-AAFA-5520CBAEA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -374,7 +374,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -603,7 +602,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -695,10 +694,10 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3">
@@ -778,10 +777,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3">
@@ -861,10 +860,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="5">
@@ -944,10 +943,10 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4">
@@ -1027,10 +1026,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="7">
@@ -1110,10 +1109,10 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="4">
@@ -1193,10 +1192,10 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4">
@@ -1276,10 +1275,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="3">
@@ -1359,10 +1358,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="11">
@@ -1442,10 +1441,10 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="3">
@@ -1525,10 +1524,10 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="3">
@@ -1608,10 +1607,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="3">
@@ -1691,10 +1690,10 @@
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="3">
@@ -1739,10 +1738,10 @@
       <c r="P14" s="3">
         <v>1.2262711700000001E-3</v>
       </c>
-      <c r="Q14" s="19">
+      <c r="Q14" s="18">
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="19">
         <v>0</v>
       </c>
       <c r="S14" s="3">
@@ -1774,10 +1773,10 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="3">
@@ -1857,10 +1856,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3">
@@ -1940,10 +1939,10 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="9">
@@ -2026,10 +2025,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3">
@@ -2109,10 +2108,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="10">
@@ -2192,10 +2191,10 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="5">
@@ -2275,10 +2274,10 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="9">
@@ -2358,10 +2357,10 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="9">
@@ -2441,10 +2440,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="10">

--- a/plant_input_1_cut.xlsx
+++ b/plant_input_1_cut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\studie\Farm_Squire\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3367AAE9-2CB4-419E-AAFA-5520CBAEA194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F30ED1-5626-42EB-A164-FED06A0C5053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="574" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_input" sheetId="1" r:id="rId1"/>
@@ -314,18 +314,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -352,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,12 +369,11 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +595,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -694,10 +687,10 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3">
@@ -777,10 +770,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3">
@@ -860,10 +853,10 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="5">
@@ -943,10 +936,10 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4">
@@ -1026,10 +1019,10 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="7">
@@ -1109,10 +1102,10 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="4">
@@ -1192,10 +1185,10 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4">
@@ -1275,10 +1268,10 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="3">
@@ -1358,10 +1351,10 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="11">
@@ -1607,10 +1600,10 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="3">
@@ -1738,10 +1731,10 @@
       <c r="P14" s="3">
         <v>1.2262711700000001E-3</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="17">
         <v>0</v>
       </c>
-      <c r="R14" s="19">
+      <c r="R14" s="18">
         <v>0</v>
       </c>
       <c r="S14" s="3">
@@ -1773,10 +1766,10 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="3">
@@ -1856,10 +1849,10 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3">
@@ -1939,10 +1932,10 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="9">
@@ -2025,10 +2018,10 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="3">
@@ -2108,10 +2101,10 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="10">
@@ -2191,10 +2184,10 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C20" s="5">
@@ -2274,10 +2267,10 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="9">
@@ -2357,10 +2350,10 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="9">
@@ -2440,10 +2433,10 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="10">
